--- a/transportation_systems/all_electric_vessels/Prices_modified.xlsx
+++ b/transportation_systems/all_electric_vessels/Prices_modified.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CCB54-0680-C744-9282-154F3E6B6F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +79,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,22 +356,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -387,7 +388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43435.041666666664</v>
       </c>
@@ -407,7 +408,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43435.083333333336</v>
       </c>
@@ -427,7 +428,7 @@
         <v>80.72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43435.125000057873</v>
       </c>
@@ -447,7 +448,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43435.16666678241</v>
       </c>
@@ -467,7 +468,7 @@
         <v>76.14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43435.208333506947</v>
       </c>
@@ -487,7 +488,7 @@
         <v>64.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43435.250000231485</v>
       </c>
@@ -507,7 +508,7 @@
         <v>69.87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43435.291666956022</v>
       </c>
@@ -527,7 +528,7 @@
         <v>49.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43435.333333680559</v>
       </c>
@@ -547,7 +548,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43435.375000405096</v>
       </c>
@@ -567,7 +568,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43435.416667129626</v>
       </c>
@@ -587,7 +588,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43435.458333854163</v>
       </c>
@@ -607,7 +608,7 @@
         <v>58.28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43435.500000578701</v>
       </c>
@@ -627,7 +628,7 @@
         <v>62.47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43435.541667303238</v>
       </c>
@@ -647,7 +648,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43435.583334027775</v>
       </c>
@@ -667,7 +668,7 @@
         <v>123.87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43435.625000752312</v>
       </c>
@@ -687,7 +688,7 @@
         <v>143.32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43435.666667476849</v>
       </c>
@@ -707,7 +708,7 @@
         <v>169.71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43435.708334201387</v>
       </c>
@@ -727,7 +728,7 @@
         <v>147.65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43435.750000925924</v>
       </c>
@@ -747,7 +748,7 @@
         <v>144.19999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43435.791667650461</v>
       </c>
@@ -767,7 +768,7 @@
         <v>113.59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43435.833334374998</v>
       </c>
@@ -787,7 +788,7 @@
         <v>114.95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43435.875001099535</v>
       </c>
@@ -807,7 +808,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43435.916667824073</v>
       </c>
@@ -827,7 +828,7 @@
         <v>76.61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43435.95833454861</v>
       </c>
@@ -847,7 +848,7 @@
         <v>62.29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43436.000001273147</v>
       </c>
@@ -867,7 +868,7 @@
         <v>47.74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43436.041667997684</v>
       </c>
@@ -887,7 +888,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43436.083334722221</v>
       </c>
@@ -907,7 +908,7 @@
         <v>61.79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43436.125001446759</v>
       </c>
@@ -927,7 +928,7 @@
         <v>56.28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43436.166666666664</v>
       </c>
@@ -947,7 +948,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43436.208333333336</v>
       </c>
@@ -967,7 +968,7 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43436.250001562497</v>
       </c>
@@ -987,7 +988,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43436.291668287035</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>25.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43436.333335011572</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>47.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43436.375001736109</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>53.82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43436.416668460646</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43436.458335185183</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>121.62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43436.500001909721</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>118.69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43436.541668634258</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43436.583335358795</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>156.96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43436.625002083332</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>148.15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43436.666668807869</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>143.08000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43436.708335532407</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>120.86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43436.750002256944</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>121.93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43436.791668981481</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43436.833335706018</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>104.03</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43436.875002430555</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>84.33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43436.916669155093</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>71.569999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43436.95833587963</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>66.38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43437.000002604167</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43437.041669328704</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43437.083336053242</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43437.125002777779</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43437.166669502316</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43437.208336226853</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>52.89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43437.25000295139</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>61.38</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43437.291669675928</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>79.48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43437.333336400465</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43437.375003125002</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43437.416669849539</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43437.458336574076</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>62.15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43437.500003298614</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43437.541670023151</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43437.583336747688</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>67.63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43437.625003472225</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43437.666670196762</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>99.01</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43437.7083369213</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43437.750003645837</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>120.38</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43437.791670370367</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>134.21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43437.833337094904</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>137.33000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43437.875003819441</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>82.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43437.916670543978</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43437.958337268516</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43438.000003993053</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>71.91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43438.04167071759</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>65.53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43438.083337442127</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>54.38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43438.125004166664</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43438.166670891202</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43438.208337615739</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>76.92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43438.250004340276</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>118.68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43438.291671064813</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>91.93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43438.33333778935</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>84.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43438.375004513888</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>89.17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43438.416671238425</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>96.53</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43438.458337962962</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>78.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43438.500004687499</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43438.541671412037</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>99.15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43438.583338136574</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>106.31</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43438.625004861111</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>118.47</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43438.666671585648</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43438.708338310185</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>82.33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43438.750005034723</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43438.79167175926</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43438.833338483797</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43438.875005208334</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43438.916671932871</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43438.958338657409</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43439.000005381946</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43439.041672106483</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43439.08333883102</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43439.125005555557</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43439.166672280095</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>56.19</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43439.208339004632</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43439.250005729169</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>65.59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43439.291672453706</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43439.333339178243</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>62.01</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43439.375005902781</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>68.17</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43439.416672627318</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43439.458339351855</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43439.500006076392</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>98.12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43439.54167280093</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43439.583339525459</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>126.11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43439.625006249997</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>132.78</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43439.666672974534</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>92.48</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43439.708339699071</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>97.41</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43439.750006423608</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>77.739999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43439.791673148145</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43439.833339872683</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>80.09</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43439.87500659722</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>66.489999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43439.916673321757</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43439.958340046294</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43440.000006770832</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43440.041673495369</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43440.083340219906</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43440.125006944443</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>50.35</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43440.16667366898</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43440.208340393518</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43440.250007118055</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43440.291673842592</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43440.333340567129</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>72.17</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43440.375007291666</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>77.48</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43440.416674016204</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>67.08</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43440.458340740741</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43440.500007465278</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43440.541674189815</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>65.73</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43440.583340914352</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43440.62500763889</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43440.666674363427</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>78.430000000000007</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43440.708341087964</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>93.64</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43440.750007812501</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43440.791674537038</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43440.833341261576</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>76.12</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43440.875007986113</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43440.91667471065</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>61.55</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43440.958341435187</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>63.49</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43441.000008159725</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43441.041674884262</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43441.083341608799</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43441.125008333336</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>50.57</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43441.166675057873</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43441.208341782411</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>56.54</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43441.250008506948</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43441.291675231485</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>83.78</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43441.333341956015</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>70.22</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43441.375008680552</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>88.41</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43441.416675405089</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>75.459999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43441.458342129627</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43441.500008854164</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43441.541675578701</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>79.73</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43441.583342303238</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43441.625009027775</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43441.666675752313</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>66.41</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43441.70834247685</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43441.750009201387</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>116.82</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43441.791675925924</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43441.833342650461</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>70.260000000000005</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43441.875009374999</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43441.916676099536</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>43441.958342824073</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>73.08</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43442.00000954861</v>
       </c>
@@ -3745,1446 +3746,6 @@
       </c>
       <c r="F169" s="1">
         <v>60.7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>43442.041676273147</v>
-      </c>
-      <c r="B170" s="1">
-        <v>121.02</v>
-      </c>
-      <c r="C170" s="1">
-        <v>122.25</v>
-      </c>
-      <c r="D170" s="1">
-        <v>63.79</v>
-      </c>
-      <c r="E170" s="1">
-        <v>63.79</v>
-      </c>
-      <c r="F170" s="1">
-        <v>59.19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>43442.083342997685</v>
-      </c>
-      <c r="B171" s="1">
-        <v>91.06</v>
-      </c>
-      <c r="C171" s="1">
-        <v>101.15</v>
-      </c>
-      <c r="D171" s="1">
-        <v>56.6</v>
-      </c>
-      <c r="E171" s="1">
-        <v>56.6</v>
-      </c>
-      <c r="F171" s="1">
-        <v>53.22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>43442.125009722222</v>
-      </c>
-      <c r="B172" s="1">
-        <v>74.489999999999995</v>
-      </c>
-      <c r="C172" s="1">
-        <v>64.069999999999993</v>
-      </c>
-      <c r="D172" s="1">
-        <v>55.12</v>
-      </c>
-      <c r="E172" s="1">
-        <v>55.12</v>
-      </c>
-      <c r="F172" s="1">
-        <v>55.72</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43442.166676446759</v>
-      </c>
-      <c r="B173" s="1">
-        <v>64.69</v>
-      </c>
-      <c r="C173" s="1">
-        <v>67.92</v>
-      </c>
-      <c r="D173" s="1">
-        <v>58.36</v>
-      </c>
-      <c r="E173" s="1">
-        <v>58.36</v>
-      </c>
-      <c r="F173" s="1">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>43442.208343171296</v>
-      </c>
-      <c r="B174" s="1">
-        <v>72.73</v>
-      </c>
-      <c r="C174" s="1">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="D174" s="1">
-        <v>60.45</v>
-      </c>
-      <c r="E174" s="1">
-        <v>60.45</v>
-      </c>
-      <c r="F174" s="1">
-        <v>56.59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>43442.250009895834</v>
-      </c>
-      <c r="B175" s="1">
-        <v>87.37</v>
-      </c>
-      <c r="C175" s="1">
-        <v>88.18</v>
-      </c>
-      <c r="D175" s="1">
-        <v>58.45</v>
-      </c>
-      <c r="E175" s="1">
-        <v>58.45</v>
-      </c>
-      <c r="F175" s="1">
-        <v>50.21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>43442.291676620371</v>
-      </c>
-      <c r="B176" s="1">
-        <v>90.91</v>
-      </c>
-      <c r="C176" s="1">
-        <v>109.54</v>
-      </c>
-      <c r="D176" s="1">
-        <v>58.63</v>
-      </c>
-      <c r="E176" s="1">
-        <v>58.63</v>
-      </c>
-      <c r="F176" s="1">
-        <v>57.35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>43442.333343344908</v>
-      </c>
-      <c r="B177" s="1">
-        <v>120.77</v>
-      </c>
-      <c r="C177" s="1">
-        <v>133.78</v>
-      </c>
-      <c r="D177" s="1">
-        <v>62.42</v>
-      </c>
-      <c r="E177" s="1">
-        <v>62.42</v>
-      </c>
-      <c r="F177" s="1">
-        <v>63.38</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>43442.375010069445</v>
-      </c>
-      <c r="B178" s="1">
-        <v>108.47</v>
-      </c>
-      <c r="C178" s="1">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="D178" s="1">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="E178" s="1">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="F178" s="1">
-        <v>62.66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>43442.416676793982</v>
-      </c>
-      <c r="B179" s="1">
-        <v>115.27</v>
-      </c>
-      <c r="C179" s="1">
-        <v>126.27</v>
-      </c>
-      <c r="D179" s="1">
-        <v>64.8</v>
-      </c>
-      <c r="E179" s="1">
-        <v>64.8</v>
-      </c>
-      <c r="F179" s="1">
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>43442.45834351852</v>
-      </c>
-      <c r="B180" s="1">
-        <v>118.77</v>
-      </c>
-      <c r="C180" s="1">
-        <v>142.82</v>
-      </c>
-      <c r="D180" s="1">
-        <v>67.180000000000007</v>
-      </c>
-      <c r="E180" s="1">
-        <v>67.180000000000007</v>
-      </c>
-      <c r="F180" s="1">
-        <v>63.41</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>43442.500010243057</v>
-      </c>
-      <c r="B181" s="1">
-        <v>165.14</v>
-      </c>
-      <c r="C181" s="1">
-        <v>269.27999999999997</v>
-      </c>
-      <c r="D181" s="1">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="E181" s="1">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="F181" s="1">
-        <v>64.84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>43442.541676967594</v>
-      </c>
-      <c r="B182" s="1">
-        <v>247.99</v>
-      </c>
-      <c r="C182" s="1">
-        <v>125.69</v>
-      </c>
-      <c r="D182" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="E182" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="F182" s="1">
-        <v>77.66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>43442.583343692131</v>
-      </c>
-      <c r="B183" s="1">
-        <v>103.96</v>
-      </c>
-      <c r="C183" s="1">
-        <v>128.75</v>
-      </c>
-      <c r="D183" s="1">
-        <v>90.18</v>
-      </c>
-      <c r="E183" s="1">
-        <v>90.18</v>
-      </c>
-      <c r="F183" s="1">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>43442.625010416668</v>
-      </c>
-      <c r="B184" s="1">
-        <v>111.99</v>
-      </c>
-      <c r="C184" s="1">
-        <v>144.16</v>
-      </c>
-      <c r="D184" s="1">
-        <v>81.58</v>
-      </c>
-      <c r="E184" s="1">
-        <v>81.58</v>
-      </c>
-      <c r="F184" s="1">
-        <v>82.34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>43442.666677141206</v>
-      </c>
-      <c r="B185" s="1">
-        <v>86.02</v>
-      </c>
-      <c r="C185" s="1">
-        <v>88.7</v>
-      </c>
-      <c r="D185" s="1">
-        <v>88.09</v>
-      </c>
-      <c r="E185" s="1">
-        <v>88.09</v>
-      </c>
-      <c r="F185" s="1">
-        <v>75.16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>43442.708343865743</v>
-      </c>
-      <c r="B186" s="1">
-        <v>84.24</v>
-      </c>
-      <c r="C186" s="1">
-        <v>92.14</v>
-      </c>
-      <c r="D186" s="1">
-        <v>84.65</v>
-      </c>
-      <c r="E186" s="1">
-        <v>84.65</v>
-      </c>
-      <c r="F186" s="1">
-        <v>79.010000000000005</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>43442.75001059028</v>
-      </c>
-      <c r="B187" s="1">
-        <v>87.97</v>
-      </c>
-      <c r="C187" s="1">
-        <v>102.01</v>
-      </c>
-      <c r="D187" s="1">
-        <v>85.62</v>
-      </c>
-      <c r="E187" s="1">
-        <v>85.62</v>
-      </c>
-      <c r="F187" s="1">
-        <v>84.02</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>43442.791677314817</v>
-      </c>
-      <c r="B188" s="1">
-        <v>96.81</v>
-      </c>
-      <c r="C188" s="1">
-        <v>89.8</v>
-      </c>
-      <c r="D188" s="1">
-        <v>87.93</v>
-      </c>
-      <c r="E188" s="1">
-        <v>87.93</v>
-      </c>
-      <c r="F188" s="1">
-        <v>83.74</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>43442.833344039354</v>
-      </c>
-      <c r="B189" s="1">
-        <v>81.88</v>
-      </c>
-      <c r="C189" s="1">
-        <v>87.23</v>
-      </c>
-      <c r="D189" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="E189" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="F189" s="1">
-        <v>82.15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>43442.875010763892</v>
-      </c>
-      <c r="B190" s="1">
-        <v>81.87</v>
-      </c>
-      <c r="C190" s="1">
-        <v>79.48</v>
-      </c>
-      <c r="D190" s="1">
-        <v>77.58</v>
-      </c>
-      <c r="E190" s="1">
-        <v>77.58</v>
-      </c>
-      <c r="F190" s="1">
-        <v>72.06</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>43442.916677488429</v>
-      </c>
-      <c r="B191" s="1">
-        <v>76.97</v>
-      </c>
-      <c r="C191" s="1">
-        <v>68.27</v>
-      </c>
-      <c r="D191" s="1">
-        <v>73.33</v>
-      </c>
-      <c r="E191" s="1">
-        <v>73.33</v>
-      </c>
-      <c r="F191" s="1">
-        <v>62.87</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>43442.958344212966</v>
-      </c>
-      <c r="B192" s="1">
-        <v>56.08</v>
-      </c>
-      <c r="C192" s="1">
-        <v>64.64</v>
-      </c>
-      <c r="D192" s="1">
-        <v>61.87</v>
-      </c>
-      <c r="E192" s="1">
-        <v>61.87</v>
-      </c>
-      <c r="F192" s="1">
-        <v>62.37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>43443.000010937503</v>
-      </c>
-      <c r="B193" s="1">
-        <v>63.69</v>
-      </c>
-      <c r="C193" s="1">
-        <v>74.06</v>
-      </c>
-      <c r="D193" s="1">
-        <v>60.03</v>
-      </c>
-      <c r="E193" s="1">
-        <v>60.03</v>
-      </c>
-      <c r="F193" s="1">
-        <v>58.56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>43443.04167766204</v>
-      </c>
-      <c r="B194" s="1">
-        <v>70.86</v>
-      </c>
-      <c r="C194" s="1">
-        <v>67.28</v>
-      </c>
-      <c r="D194" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="E194" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="F194" s="1">
-        <v>61.07</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>43443.083344386578</v>
-      </c>
-      <c r="B195" s="1">
-        <v>68.62</v>
-      </c>
-      <c r="C195" s="1">
-        <v>57.07</v>
-      </c>
-      <c r="D195" s="1">
-        <v>63.39</v>
-      </c>
-      <c r="E195" s="1">
-        <v>63.39</v>
-      </c>
-      <c r="F195" s="1">
-        <v>55.32</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>43443.125011111108</v>
-      </c>
-      <c r="B196" s="1">
-        <v>57.28</v>
-      </c>
-      <c r="C196" s="1">
-        <v>58.11</v>
-      </c>
-      <c r="D196" s="1">
-        <v>59.13</v>
-      </c>
-      <c r="E196" s="1">
-        <v>59.13</v>
-      </c>
-      <c r="F196" s="1">
-        <v>56.95</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>43443.166677835645</v>
-      </c>
-      <c r="B197" s="1">
-        <v>55.73</v>
-      </c>
-      <c r="C197" s="1">
-        <v>57.48</v>
-      </c>
-      <c r="D197" s="1">
-        <v>59.64</v>
-      </c>
-      <c r="E197" s="1">
-        <v>59.64</v>
-      </c>
-      <c r="F197" s="1">
-        <v>56.91</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>43443.208344560182</v>
-      </c>
-      <c r="B198" s="1">
-        <v>52.36</v>
-      </c>
-      <c r="C198" s="1">
-        <v>63.49</v>
-      </c>
-      <c r="D198" s="1">
-        <v>56.13</v>
-      </c>
-      <c r="E198" s="1">
-        <v>56.13</v>
-      </c>
-      <c r="F198" s="1">
-        <v>60.66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>43443.250011284719</v>
-      </c>
-      <c r="B199" s="1">
-        <v>50.48</v>
-      </c>
-      <c r="C199" s="1">
-        <v>52.25</v>
-      </c>
-      <c r="D199" s="1">
-        <v>48.01</v>
-      </c>
-      <c r="E199" s="1">
-        <v>48.01</v>
-      </c>
-      <c r="F199" s="1">
-        <v>49.84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>43443.291678009256</v>
-      </c>
-      <c r="B200" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="C200" s="1">
-        <v>57.85</v>
-      </c>
-      <c r="D200" s="1">
-        <v>53.18</v>
-      </c>
-      <c r="E200" s="1">
-        <v>53.18</v>
-      </c>
-      <c r="F200" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>43443.333344733794</v>
-      </c>
-      <c r="B201" s="1">
-        <v>60.78</v>
-      </c>
-      <c r="C201" s="1">
-        <v>67.06</v>
-      </c>
-      <c r="D201" s="1">
-        <v>60.42</v>
-      </c>
-      <c r="E201" s="1">
-        <v>60.42</v>
-      </c>
-      <c r="F201" s="1">
-        <v>59.19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>43443.375011458331</v>
-      </c>
-      <c r="B202" s="1">
-        <v>77.430000000000007</v>
-      </c>
-      <c r="C202" s="1">
-        <v>75.63</v>
-      </c>
-      <c r="D202" s="1">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="E202" s="1">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="F202" s="1">
-        <v>64.63</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>43443.416678182868</v>
-      </c>
-      <c r="B203" s="1">
-        <v>62.82</v>
-      </c>
-      <c r="C203" s="1">
-        <v>62.72</v>
-      </c>
-      <c r="D203" s="1">
-        <v>59.25</v>
-      </c>
-      <c r="E203" s="1">
-        <v>59.25</v>
-      </c>
-      <c r="F203" s="1">
-        <v>54.79</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>43443.458344907405</v>
-      </c>
-      <c r="B204" s="1">
-        <v>66.489999999999995</v>
-      </c>
-      <c r="C204" s="1">
-        <v>67.75</v>
-      </c>
-      <c r="D204" s="1">
-        <v>60.35</v>
-      </c>
-      <c r="E204" s="1">
-        <v>60.35</v>
-      </c>
-      <c r="F204" s="1">
-        <v>56.66</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>43443.500011631942</v>
-      </c>
-      <c r="B205" s="1">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="C205" s="1">
-        <v>75.459999999999994</v>
-      </c>
-      <c r="D205" s="1">
-        <v>62.51</v>
-      </c>
-      <c r="E205" s="1">
-        <v>62.51</v>
-      </c>
-      <c r="F205" s="1">
-        <v>62.36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>43443.54167835648</v>
-      </c>
-      <c r="B206" s="1">
-        <v>71.680000000000007</v>
-      </c>
-      <c r="C206" s="1">
-        <v>80.59</v>
-      </c>
-      <c r="D206" s="1">
-        <v>62.21</v>
-      </c>
-      <c r="E206" s="1">
-        <v>62.21</v>
-      </c>
-      <c r="F206" s="1">
-        <v>65.209999999999994</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>43443.583345081017</v>
-      </c>
-      <c r="B207" s="1">
-        <v>79.94</v>
-      </c>
-      <c r="C207" s="1">
-        <v>77.040000000000006</v>
-      </c>
-      <c r="D207" s="1">
-        <v>72.569999999999993</v>
-      </c>
-      <c r="E207" s="1">
-        <v>72.569999999999993</v>
-      </c>
-      <c r="F207" s="1">
-        <v>66.33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>43443.625011805554</v>
-      </c>
-      <c r="B208" s="1">
-        <v>78.260000000000005</v>
-      </c>
-      <c r="C208" s="1">
-        <v>82.22</v>
-      </c>
-      <c r="D208" s="1">
-        <v>80.23</v>
-      </c>
-      <c r="E208" s="1">
-        <v>80.23</v>
-      </c>
-      <c r="F208" s="1">
-        <v>71.06</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>43443.666678530091</v>
-      </c>
-      <c r="B209" s="1">
-        <v>83.6</v>
-      </c>
-      <c r="C209" s="1">
-        <v>90.24</v>
-      </c>
-      <c r="D209" s="1">
-        <v>86.23</v>
-      </c>
-      <c r="E209" s="1">
-        <v>86.23</v>
-      </c>
-      <c r="F209" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>43443.708345254629</v>
-      </c>
-      <c r="B210" s="1">
-        <v>82.98</v>
-      </c>
-      <c r="C210" s="1">
-        <v>113.86</v>
-      </c>
-      <c r="D210" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="E210" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="F210" s="1">
-        <v>98.81</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>43443.750011979166</v>
-      </c>
-      <c r="B211" s="1">
-        <v>108.7</v>
-      </c>
-      <c r="C211" s="1">
-        <v>105.07</v>
-      </c>
-      <c r="D211" s="1">
-        <v>113.08</v>
-      </c>
-      <c r="E211" s="1">
-        <v>113.08</v>
-      </c>
-      <c r="F211" s="1">
-        <v>96.45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>43443.791678703703</v>
-      </c>
-      <c r="B212" s="1">
-        <v>87.9</v>
-      </c>
-      <c r="C212" s="1">
-        <v>97.95</v>
-      </c>
-      <c r="D212" s="1">
-        <v>94.12</v>
-      </c>
-      <c r="E212" s="1">
-        <v>94.12</v>
-      </c>
-      <c r="F212" s="1">
-        <v>93.31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>43443.83334542824</v>
-      </c>
-      <c r="B213" s="1">
-        <v>95.17</v>
-      </c>
-      <c r="C213" s="1">
-        <v>99.69</v>
-      </c>
-      <c r="D213" s="1">
-        <v>94.97</v>
-      </c>
-      <c r="E213" s="1">
-        <v>94.97</v>
-      </c>
-      <c r="F213" s="1">
-        <v>89.03</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>43443.875012152777</v>
-      </c>
-      <c r="B214" s="1">
-        <v>103.48</v>
-      </c>
-      <c r="C214" s="1">
-        <v>101.7</v>
-      </c>
-      <c r="D214" s="1">
-        <v>81.33</v>
-      </c>
-      <c r="E214" s="1">
-        <v>81.33</v>
-      </c>
-      <c r="F214" s="1">
-        <v>78.47</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>43443.916678877315</v>
-      </c>
-      <c r="B215" s="1">
-        <v>109.16</v>
-      </c>
-      <c r="C215" s="1">
-        <v>97.49</v>
-      </c>
-      <c r="D215" s="1">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="E215" s="1">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="F215" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>43443.958345601852</v>
-      </c>
-      <c r="B216" s="1">
-        <v>84.01</v>
-      </c>
-      <c r="C216" s="1">
-        <v>84.89</v>
-      </c>
-      <c r="D216" s="1">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="E216" s="1">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="F216" s="1">
-        <v>67.31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>43444.000012326389</v>
-      </c>
-      <c r="B217" s="1">
-        <v>148.93</v>
-      </c>
-      <c r="C217" s="1">
-        <v>207.73</v>
-      </c>
-      <c r="D217" s="1">
-        <v>64</v>
-      </c>
-      <c r="E217" s="1">
-        <v>64</v>
-      </c>
-      <c r="F217" s="1">
-        <v>62.54</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>43444.041679050926</v>
-      </c>
-      <c r="B218" s="1">
-        <v>104.11</v>
-      </c>
-      <c r="C218" s="1">
-        <v>75.97</v>
-      </c>
-      <c r="D218" s="1">
-        <v>73.25</v>
-      </c>
-      <c r="E218" s="1">
-        <v>73.25</v>
-      </c>
-      <c r="F218" s="1">
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>43444.083345775463</v>
-      </c>
-      <c r="B219" s="1">
-        <v>81.36</v>
-      </c>
-      <c r="C219" s="1">
-        <v>56.49</v>
-      </c>
-      <c r="D219" s="1">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E219" s="1">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="F219" s="1">
-        <v>50.56</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>43444.125012500001</v>
-      </c>
-      <c r="B220" s="1">
-        <v>47.13</v>
-      </c>
-      <c r="C220" s="1">
-        <v>51.52</v>
-      </c>
-      <c r="D220" s="1">
-        <v>52.73</v>
-      </c>
-      <c r="E220" s="1">
-        <v>52.73</v>
-      </c>
-      <c r="F220" s="1">
-        <v>49.34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>43444.166679224538</v>
-      </c>
-      <c r="B221" s="1">
-        <v>45.25</v>
-      </c>
-      <c r="C221" s="1">
-        <v>52.68</v>
-      </c>
-      <c r="D221" s="1">
-        <v>52.21</v>
-      </c>
-      <c r="E221" s="1">
-        <v>52.21</v>
-      </c>
-      <c r="F221" s="1">
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>43444.208345949075</v>
-      </c>
-      <c r="B222" s="1">
-        <v>57.41</v>
-      </c>
-      <c r="C222" s="1">
-        <v>59.65</v>
-      </c>
-      <c r="D222" s="1">
-        <v>67.27</v>
-      </c>
-      <c r="E222" s="1">
-        <v>67.27</v>
-      </c>
-      <c r="F222" s="1">
-        <v>54.53</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>43444.250012673612</v>
-      </c>
-      <c r="B223" s="1">
-        <v>62.8</v>
-      </c>
-      <c r="C223" s="1">
-        <v>86.33</v>
-      </c>
-      <c r="D223" s="1">
-        <v>65.66</v>
-      </c>
-      <c r="E223" s="1">
-        <v>65.66</v>
-      </c>
-      <c r="F223" s="1">
-        <v>63.93</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>43444.291679398149</v>
-      </c>
-      <c r="B224" s="1">
-        <v>82.91</v>
-      </c>
-      <c r="C224" s="1">
-        <v>116.57</v>
-      </c>
-      <c r="D224" s="1">
-        <v>83.1</v>
-      </c>
-      <c r="E224" s="1">
-        <v>83.1</v>
-      </c>
-      <c r="F224" s="1">
-        <v>88.65</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>43444.333346122687</v>
-      </c>
-      <c r="B225" s="1">
-        <v>96.97</v>
-      </c>
-      <c r="C225" s="1">
-        <v>94.64</v>
-      </c>
-      <c r="D225" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="E225" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="F225" s="1">
-        <v>80.540000000000006</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>43444.375012847224</v>
-      </c>
-      <c r="B226" s="1">
-        <v>82.99</v>
-      </c>
-      <c r="C226" s="1">
-        <v>93.04</v>
-      </c>
-      <c r="D226" s="1">
-        <v>89.06</v>
-      </c>
-      <c r="E226" s="1">
-        <v>89.06</v>
-      </c>
-      <c r="F226" s="1">
-        <v>80.13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>43444.416679571761</v>
-      </c>
-      <c r="B227" s="1">
-        <v>83.22</v>
-      </c>
-      <c r="C227" s="1">
-        <v>102.57</v>
-      </c>
-      <c r="D227" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="E227" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="F227" s="1">
-        <v>84.42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>43444.458346296298</v>
-      </c>
-      <c r="B228" s="1">
-        <v>83.12</v>
-      </c>
-      <c r="C228" s="1">
-        <v>86.49</v>
-      </c>
-      <c r="D228" s="1">
-        <v>94.11</v>
-      </c>
-      <c r="E228" s="1">
-        <v>94.11</v>
-      </c>
-      <c r="F228" s="1">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>43444.500013020835</v>
-      </c>
-      <c r="B229" s="1">
-        <v>80.92</v>
-      </c>
-      <c r="C229" s="1">
-        <v>94.6</v>
-      </c>
-      <c r="D229" s="1">
-        <v>86.52</v>
-      </c>
-      <c r="E229" s="1">
-        <v>86.52</v>
-      </c>
-      <c r="F229" s="1">
-        <v>81.69</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>43444.541679745373</v>
-      </c>
-      <c r="B230" s="1">
-        <v>86.26</v>
-      </c>
-      <c r="C230" s="1">
-        <v>96.31</v>
-      </c>
-      <c r="D230" s="1">
-        <v>92.69</v>
-      </c>
-      <c r="E230" s="1">
-        <v>92.69</v>
-      </c>
-      <c r="F230" s="1">
-        <v>84.33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>43444.58334646991</v>
-      </c>
-      <c r="B231" s="1">
-        <v>130.55000000000001</v>
-      </c>
-      <c r="C231" s="1">
-        <v>90.91</v>
-      </c>
-      <c r="D231" s="1">
-        <v>140.16999999999999</v>
-      </c>
-      <c r="E231" s="1">
-        <v>140.16999999999999</v>
-      </c>
-      <c r="F231" s="1">
-        <v>80.650000000000006</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>43444.625013194447</v>
-      </c>
-      <c r="B232" s="1">
-        <v>88.69</v>
-      </c>
-      <c r="C232" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="D232" s="1">
-        <v>99.02</v>
-      </c>
-      <c r="E232" s="1">
-        <v>99.02</v>
-      </c>
-      <c r="F232" s="1">
-        <v>91.55</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>43444.666679918984</v>
-      </c>
-      <c r="B233" s="1">
-        <v>86.6</v>
-      </c>
-      <c r="C233" s="1">
-        <v>141.06</v>
-      </c>
-      <c r="D233" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="E233" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="F233" s="1">
-        <v>149.1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>43444.708346643522</v>
-      </c>
-      <c r="B234" s="1">
-        <v>83.45</v>
-      </c>
-      <c r="C234" s="1">
-        <v>104.08</v>
-      </c>
-      <c r="D234" s="1">
-        <v>91.88</v>
-      </c>
-      <c r="E234" s="1">
-        <v>91.88</v>
-      </c>
-      <c r="F234" s="1">
-        <v>105.15</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>43444.750013368059</v>
-      </c>
-      <c r="B235" s="1">
-        <v>85.99</v>
-      </c>
-      <c r="C235" s="1">
-        <v>97.42</v>
-      </c>
-      <c r="D235" s="1">
-        <v>97.04</v>
-      </c>
-      <c r="E235" s="1">
-        <v>97.04</v>
-      </c>
-      <c r="F235" s="1">
-        <v>94.67</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>43444.791680092596</v>
-      </c>
-      <c r="B236" s="1">
-        <v>84.52</v>
-      </c>
-      <c r="C236" s="1">
-        <v>98.31</v>
-      </c>
-      <c r="D236" s="1">
-        <v>89.12</v>
-      </c>
-      <c r="E236" s="1">
-        <v>89.12</v>
-      </c>
-      <c r="F236" s="1">
-        <v>99.64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>43444.833346817133</v>
-      </c>
-      <c r="B237" s="1">
-        <v>85.23</v>
-      </c>
-      <c r="C237" s="1">
-        <v>99.06</v>
-      </c>
-      <c r="D237" s="1">
-        <v>99.66</v>
-      </c>
-      <c r="E237" s="1">
-        <v>99.66</v>
-      </c>
-      <c r="F237" s="1">
-        <v>100.75</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>43444.875013541663</v>
-      </c>
-      <c r="B238" s="1">
-        <v>95.46</v>
-      </c>
-      <c r="C238" s="1">
-        <v>96.84</v>
-      </c>
-      <c r="D238" s="1">
-        <v>99.28</v>
-      </c>
-      <c r="E238" s="1">
-        <v>99.28</v>
-      </c>
-      <c r="F238" s="1">
-        <v>80.37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>43444.9166802662</v>
-      </c>
-      <c r="B239" s="1">
-        <v>79.010000000000005</v>
-      </c>
-      <c r="C239" s="1">
-        <v>104.64</v>
-      </c>
-      <c r="D239" s="1">
-        <v>74.59</v>
-      </c>
-      <c r="E239" s="1">
-        <v>74.59</v>
-      </c>
-      <c r="F239" s="1">
-        <v>63.16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>43444.958346990737</v>
-      </c>
-      <c r="B240" s="1">
-        <v>79.239999999999995</v>
-      </c>
-      <c r="C240" s="1">
-        <v>81.069999999999993</v>
-      </c>
-      <c r="D240" s="1">
-        <v>83.06</v>
-      </c>
-      <c r="E240" s="1">
-        <v>83.06</v>
-      </c>
-      <c r="F240" s="1">
-        <v>75.27</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>43445.000013715275</v>
-      </c>
-      <c r="B241" s="1">
-        <v>83.12</v>
-      </c>
-      <c r="C241" s="1">
-        <v>103.88</v>
-      </c>
-      <c r="D241" s="1">
-        <v>72.58</v>
-      </c>
-      <c r="E241" s="1">
-        <v>72.58</v>
-      </c>
-      <c r="F241" s="1">
-        <v>66.760000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5194,733 +3755,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
     </row>
   </sheetData>

--- a/transportation_systems/all_electric_vessels/Prices_modified.xlsx
+++ b/transportation_systems/all_electric_vessels/Prices_modified.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CCB54-0680-C744-9282-154F3E6B6F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,7 +78,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,22 +355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -388,7 +387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43435.041666666664</v>
       </c>
@@ -408,7 +407,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43435.083333333336</v>
       </c>
@@ -428,7 +427,7 @@
         <v>80.72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43435.125000057873</v>
       </c>
@@ -448,7 +447,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43435.16666678241</v>
       </c>
@@ -468,7 +467,7 @@
         <v>76.14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43435.208333506947</v>
       </c>
@@ -488,7 +487,7 @@
         <v>64.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43435.250000231485</v>
       </c>
@@ -508,7 +507,7 @@
         <v>69.87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43435.291666956022</v>
       </c>
@@ -528,7 +527,7 @@
         <v>49.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43435.333333680559</v>
       </c>
@@ -548,7 +547,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43435.375000405096</v>
       </c>
@@ -568,7 +567,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43435.416667129626</v>
       </c>
@@ -588,7 +587,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43435.458333854163</v>
       </c>
@@ -608,7 +607,7 @@
         <v>58.28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43435.500000578701</v>
       </c>
@@ -628,7 +627,7 @@
         <v>62.47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43435.541667303238</v>
       </c>
@@ -648,7 +647,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43435.583334027775</v>
       </c>
@@ -668,7 +667,7 @@
         <v>123.87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43435.625000752312</v>
       </c>
@@ -688,7 +687,7 @@
         <v>143.32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43435.666667476849</v>
       </c>
@@ -708,7 +707,7 @@
         <v>169.71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43435.708334201387</v>
       </c>
@@ -728,7 +727,7 @@
         <v>147.65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43435.750000925924</v>
       </c>
@@ -748,7 +747,7 @@
         <v>144.19999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43435.791667650461</v>
       </c>
@@ -768,7 +767,7 @@
         <v>113.59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43435.833334374998</v>
       </c>
@@ -788,7 +787,7 @@
         <v>114.95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43435.875001099535</v>
       </c>
@@ -808,7 +807,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43435.916667824073</v>
       </c>
@@ -828,7 +827,7 @@
         <v>76.61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43435.95833454861</v>
       </c>
@@ -848,7 +847,7 @@
         <v>62.29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43436.000001273147</v>
       </c>
@@ -868,7 +867,7 @@
         <v>47.74</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43436.041667997684</v>
       </c>
@@ -888,7 +887,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43436.083334722221</v>
       </c>
@@ -908,7 +907,7 @@
         <v>61.79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43436.125001446759</v>
       </c>
@@ -928,7 +927,7 @@
         <v>56.28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43436.166666666664</v>
       </c>
@@ -948,7 +947,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43436.208333333336</v>
       </c>
@@ -968,7 +967,7 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43436.250001562497</v>
       </c>
@@ -988,7 +987,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43436.291668287035</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>25.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43436.333335011572</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>47.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43436.375001736109</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>53.82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43436.416668460646</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43436.458335185183</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>121.62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43436.500001909721</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>118.69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43436.541668634258</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43436.583335358795</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>156.96</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43436.625002083332</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>148.15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43436.666668807869</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>143.08000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43436.708335532407</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>120.86</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43436.750002256944</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>121.93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43436.791668981481</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43436.833335706018</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>104.03</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43436.875002430555</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>84.33</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43436.916669155093</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>71.569999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43436.95833587963</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>66.38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43437.000002604167</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43437.041669328704</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43437.083336053242</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43437.125002777779</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43437.166669502316</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43437.208336226853</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>52.89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43437.25000295139</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>61.38</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43437.291669675928</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>79.48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43437.333336400465</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43437.375003125002</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43437.416669849539</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43437.458336574076</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>62.15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43437.500003298614</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43437.541670023151</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43437.583336747688</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>67.63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43437.625003472225</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43437.666670196762</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>99.01</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43437.7083369213</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43437.750003645837</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>120.38</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43437.791670370367</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>134.21</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43437.833337094904</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>137.33000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43437.875003819441</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>82.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43437.916670543978</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43437.958337268516</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43438.000003993053</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>71.91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43438.04167071759</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>65.53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43438.083337442127</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>54.38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43438.125004166664</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43438.166670891202</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43438.208337615739</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>76.92</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43438.250004340276</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>118.68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43438.291671064813</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>91.93</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43438.33333778935</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>84.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43438.375004513888</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>89.17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43438.416671238425</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>96.53</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43438.458337962962</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>78.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43438.500004687499</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43438.541671412037</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>99.15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43438.583338136574</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>106.31</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43438.625004861111</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>118.47</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43438.666671585648</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43438.708338310185</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>82.33</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43438.750005034723</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43438.79167175926</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43438.833338483797</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43438.875005208334</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43438.916671932871</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>64.95</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43438.958338657409</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43439.000005381946</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43439.041672106483</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43439.08333883102</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>54.82</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43439.125005555557</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43439.166672280095</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>56.19</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43439.208339004632</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43439.250005729169</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>65.59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43439.291672453706</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43439.333339178243</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>62.01</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43439.375005902781</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>68.17</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43439.416672627318</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43439.458339351855</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43439.500006076392</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>98.12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43439.54167280093</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>91.14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43439.583339525459</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>126.11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43439.625006249997</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>132.78</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43439.666672974534</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>92.48</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43439.708339699071</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>97.41</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43439.750006423608</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>77.739999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43439.791673148145</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43439.833339872683</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>80.09</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43439.87500659722</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>66.489999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43439.916673321757</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43439.958340046294</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43440.000006770832</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43440.041673495369</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43440.083340219906</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>54.92</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43440.125006944443</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>50.35</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43440.16667366898</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43440.208340393518</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43440.250007118055</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43440.291673842592</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43440.333340567129</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>72.17</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43440.375007291666</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>77.48</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43440.416674016204</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>67.08</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43440.458340740741</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43440.500007465278</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43440.541674189815</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>65.73</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43440.583340914352</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43440.62500763889</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43440.666674363427</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>78.430000000000007</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43440.708341087964</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>93.64</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43440.750007812501</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>86.34</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43440.791674537038</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43440.833341261576</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>76.12</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43440.875007986113</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>61.78</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43440.91667471065</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>61.55</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43440.958341435187</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>63.49</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43441.000008159725</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43441.041674884262</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43441.083341608799</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>53.69</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43441.125008333336</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>50.57</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43441.166675057873</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43441.208341782411</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>56.54</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43441.250008506948</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43441.291675231485</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>83.78</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43441.333341956015</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>70.22</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43441.375008680552</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>88.41</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43441.416675405089</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>75.459999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43441.458342129627</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43441.500008854164</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43441.541675578701</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>79.73</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43441.583342303238</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43441.625009027775</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43441.666675752313</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>66.41</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43441.70834247685</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43441.750009201387</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>116.82</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43441.791675925924</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43441.833342650461</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>70.260000000000005</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43441.875009374999</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>60.22</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43441.916676099536</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43441.958342824073</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>73.08</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43442.00000954861</v>
       </c>
@@ -3746,6 +3745,1446 @@
       </c>
       <c r="F169" s="1">
         <v>60.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>43442.041676273147</v>
+      </c>
+      <c r="B170" s="1">
+        <v>121.02</v>
+      </c>
+      <c r="C170" s="1">
+        <v>122.25</v>
+      </c>
+      <c r="D170" s="1">
+        <v>63.79</v>
+      </c>
+      <c r="E170" s="1">
+        <v>63.79</v>
+      </c>
+      <c r="F170" s="1">
+        <v>59.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>43442.083342997685</v>
+      </c>
+      <c r="B171" s="1">
+        <v>91.06</v>
+      </c>
+      <c r="C171" s="1">
+        <v>101.15</v>
+      </c>
+      <c r="D171" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="E171" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="F171" s="1">
+        <v>53.22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>43442.125009722222</v>
+      </c>
+      <c r="B172" s="1">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C172" s="1">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="D172" s="1">
+        <v>55.12</v>
+      </c>
+      <c r="E172" s="1">
+        <v>55.12</v>
+      </c>
+      <c r="F172" s="1">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>43442.166676446759</v>
+      </c>
+      <c r="B173" s="1">
+        <v>64.69</v>
+      </c>
+      <c r="C173" s="1">
+        <v>67.92</v>
+      </c>
+      <c r="D173" s="1">
+        <v>58.36</v>
+      </c>
+      <c r="E173" s="1">
+        <v>58.36</v>
+      </c>
+      <c r="F173" s="1">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>43442.208343171296</v>
+      </c>
+      <c r="B174" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="C174" s="1">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="D174" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="E174" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="F174" s="1">
+        <v>56.59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>43442.250009895834</v>
+      </c>
+      <c r="B175" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="C175" s="1">
+        <v>88.18</v>
+      </c>
+      <c r="D175" s="1">
+        <v>58.45</v>
+      </c>
+      <c r="E175" s="1">
+        <v>58.45</v>
+      </c>
+      <c r="F175" s="1">
+        <v>50.21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>43442.291676620371</v>
+      </c>
+      <c r="B176" s="1">
+        <v>90.91</v>
+      </c>
+      <c r="C176" s="1">
+        <v>109.54</v>
+      </c>
+      <c r="D176" s="1">
+        <v>58.63</v>
+      </c>
+      <c r="E176" s="1">
+        <v>58.63</v>
+      </c>
+      <c r="F176" s="1">
+        <v>57.35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>43442.333343344908</v>
+      </c>
+      <c r="B177" s="1">
+        <v>120.77</v>
+      </c>
+      <c r="C177" s="1">
+        <v>133.78</v>
+      </c>
+      <c r="D177" s="1">
+        <v>62.42</v>
+      </c>
+      <c r="E177" s="1">
+        <v>62.42</v>
+      </c>
+      <c r="F177" s="1">
+        <v>63.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>43442.375010069445</v>
+      </c>
+      <c r="B178" s="1">
+        <v>108.47</v>
+      </c>
+      <c r="C178" s="1">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="D178" s="1">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="E178" s="1">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="F178" s="1">
+        <v>62.66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>43442.416676793982</v>
+      </c>
+      <c r="B179" s="1">
+        <v>115.27</v>
+      </c>
+      <c r="C179" s="1">
+        <v>126.27</v>
+      </c>
+      <c r="D179" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="E179" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>43442.45834351852</v>
+      </c>
+      <c r="B180" s="1">
+        <v>118.77</v>
+      </c>
+      <c r="C180" s="1">
+        <v>142.82</v>
+      </c>
+      <c r="D180" s="1">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="E180" s="1">
+        <v>67.180000000000007</v>
+      </c>
+      <c r="F180" s="1">
+        <v>63.41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>43442.500010243057</v>
+      </c>
+      <c r="B181" s="1">
+        <v>165.14</v>
+      </c>
+      <c r="C181" s="1">
+        <v>269.27999999999997</v>
+      </c>
+      <c r="D181" s="1">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="E181" s="1">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="F181" s="1">
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>43442.541676967594</v>
+      </c>
+      <c r="B182" s="1">
+        <v>247.99</v>
+      </c>
+      <c r="C182" s="1">
+        <v>125.69</v>
+      </c>
+      <c r="D182" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="E182" s="1">
+        <v>80.3</v>
+      </c>
+      <c r="F182" s="1">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>43442.583343692131</v>
+      </c>
+      <c r="B183" s="1">
+        <v>103.96</v>
+      </c>
+      <c r="C183" s="1">
+        <v>128.75</v>
+      </c>
+      <c r="D183" s="1">
+        <v>90.18</v>
+      </c>
+      <c r="E183" s="1">
+        <v>90.18</v>
+      </c>
+      <c r="F183" s="1">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>43442.625010416668</v>
+      </c>
+      <c r="B184" s="1">
+        <v>111.99</v>
+      </c>
+      <c r="C184" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D184" s="1">
+        <v>81.58</v>
+      </c>
+      <c r="E184" s="1">
+        <v>81.58</v>
+      </c>
+      <c r="F184" s="1">
+        <v>82.34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>43442.666677141206</v>
+      </c>
+      <c r="B185" s="1">
+        <v>86.02</v>
+      </c>
+      <c r="C185" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="D185" s="1">
+        <v>88.09</v>
+      </c>
+      <c r="E185" s="1">
+        <v>88.09</v>
+      </c>
+      <c r="F185" s="1">
+        <v>75.16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>43442.708343865743</v>
+      </c>
+      <c r="B186" s="1">
+        <v>84.24</v>
+      </c>
+      <c r="C186" s="1">
+        <v>92.14</v>
+      </c>
+      <c r="D186" s="1">
+        <v>84.65</v>
+      </c>
+      <c r="E186" s="1">
+        <v>84.65</v>
+      </c>
+      <c r="F186" s="1">
+        <v>79.010000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>43442.75001059028</v>
+      </c>
+      <c r="B187" s="1">
+        <v>87.97</v>
+      </c>
+      <c r="C187" s="1">
+        <v>102.01</v>
+      </c>
+      <c r="D187" s="1">
+        <v>85.62</v>
+      </c>
+      <c r="E187" s="1">
+        <v>85.62</v>
+      </c>
+      <c r="F187" s="1">
+        <v>84.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>43442.791677314817</v>
+      </c>
+      <c r="B188" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="C188" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="D188" s="1">
+        <v>87.93</v>
+      </c>
+      <c r="E188" s="1">
+        <v>87.93</v>
+      </c>
+      <c r="F188" s="1">
+        <v>83.74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>43442.833344039354</v>
+      </c>
+      <c r="B189" s="1">
+        <v>81.88</v>
+      </c>
+      <c r="C189" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="D189" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="E189" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="F189" s="1">
+        <v>82.15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>43442.875010763892</v>
+      </c>
+      <c r="B190" s="1">
+        <v>81.87</v>
+      </c>
+      <c r="C190" s="1">
+        <v>79.48</v>
+      </c>
+      <c r="D190" s="1">
+        <v>77.58</v>
+      </c>
+      <c r="E190" s="1">
+        <v>77.58</v>
+      </c>
+      <c r="F190" s="1">
+        <v>72.06</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>43442.916677488429</v>
+      </c>
+      <c r="B191" s="1">
+        <v>76.97</v>
+      </c>
+      <c r="C191" s="1">
+        <v>68.27</v>
+      </c>
+      <c r="D191" s="1">
+        <v>73.33</v>
+      </c>
+      <c r="E191" s="1">
+        <v>73.33</v>
+      </c>
+      <c r="F191" s="1">
+        <v>62.87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>43442.958344212966</v>
+      </c>
+      <c r="B192" s="1">
+        <v>56.08</v>
+      </c>
+      <c r="C192" s="1">
+        <v>64.64</v>
+      </c>
+      <c r="D192" s="1">
+        <v>61.87</v>
+      </c>
+      <c r="E192" s="1">
+        <v>61.87</v>
+      </c>
+      <c r="F192" s="1">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>43443.000010937503</v>
+      </c>
+      <c r="B193" s="1">
+        <v>63.69</v>
+      </c>
+      <c r="C193" s="1">
+        <v>74.06</v>
+      </c>
+      <c r="D193" s="1">
+        <v>60.03</v>
+      </c>
+      <c r="E193" s="1">
+        <v>60.03</v>
+      </c>
+      <c r="F193" s="1">
+        <v>58.56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>43443.04167766204</v>
+      </c>
+      <c r="B194" s="1">
+        <v>70.86</v>
+      </c>
+      <c r="C194" s="1">
+        <v>67.28</v>
+      </c>
+      <c r="D194" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="F194" s="1">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>43443.083344386578</v>
+      </c>
+      <c r="B195" s="1">
+        <v>68.62</v>
+      </c>
+      <c r="C195" s="1">
+        <v>57.07</v>
+      </c>
+      <c r="D195" s="1">
+        <v>63.39</v>
+      </c>
+      <c r="E195" s="1">
+        <v>63.39</v>
+      </c>
+      <c r="F195" s="1">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>43443.125011111108</v>
+      </c>
+      <c r="B196" s="1">
+        <v>57.28</v>
+      </c>
+      <c r="C196" s="1">
+        <v>58.11</v>
+      </c>
+      <c r="D196" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="E196" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="F196" s="1">
+        <v>56.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>43443.166677835645</v>
+      </c>
+      <c r="B197" s="1">
+        <v>55.73</v>
+      </c>
+      <c r="C197" s="1">
+        <v>57.48</v>
+      </c>
+      <c r="D197" s="1">
+        <v>59.64</v>
+      </c>
+      <c r="E197" s="1">
+        <v>59.64</v>
+      </c>
+      <c r="F197" s="1">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>43443.208344560182</v>
+      </c>
+      <c r="B198" s="1">
+        <v>52.36</v>
+      </c>
+      <c r="C198" s="1">
+        <v>63.49</v>
+      </c>
+      <c r="D198" s="1">
+        <v>56.13</v>
+      </c>
+      <c r="E198" s="1">
+        <v>56.13</v>
+      </c>
+      <c r="F198" s="1">
+        <v>60.66</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>43443.250011284719</v>
+      </c>
+      <c r="B199" s="1">
+        <v>50.48</v>
+      </c>
+      <c r="C199" s="1">
+        <v>52.25</v>
+      </c>
+      <c r="D199" s="1">
+        <v>48.01</v>
+      </c>
+      <c r="E199" s="1">
+        <v>48.01</v>
+      </c>
+      <c r="F199" s="1">
+        <v>49.84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>43443.291678009256</v>
+      </c>
+      <c r="B200" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="C200" s="1">
+        <v>57.85</v>
+      </c>
+      <c r="D200" s="1">
+        <v>53.18</v>
+      </c>
+      <c r="E200" s="1">
+        <v>53.18</v>
+      </c>
+      <c r="F200" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>43443.333344733794</v>
+      </c>
+      <c r="B201" s="1">
+        <v>60.78</v>
+      </c>
+      <c r="C201" s="1">
+        <v>67.06</v>
+      </c>
+      <c r="D201" s="1">
+        <v>60.42</v>
+      </c>
+      <c r="E201" s="1">
+        <v>60.42</v>
+      </c>
+      <c r="F201" s="1">
+        <v>59.19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>43443.375011458331</v>
+      </c>
+      <c r="B202" s="1">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C202" s="1">
+        <v>75.63</v>
+      </c>
+      <c r="D202" s="1">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="E202" s="1">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="F202" s="1">
+        <v>64.63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>43443.416678182868</v>
+      </c>
+      <c r="B203" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="C203" s="1">
+        <v>62.72</v>
+      </c>
+      <c r="D203" s="1">
+        <v>59.25</v>
+      </c>
+      <c r="E203" s="1">
+        <v>59.25</v>
+      </c>
+      <c r="F203" s="1">
+        <v>54.79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>43443.458344907405</v>
+      </c>
+      <c r="B204" s="1">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="C204" s="1">
+        <v>67.75</v>
+      </c>
+      <c r="D204" s="1">
+        <v>60.35</v>
+      </c>
+      <c r="E204" s="1">
+        <v>60.35</v>
+      </c>
+      <c r="F204" s="1">
+        <v>56.66</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>43443.500011631942</v>
+      </c>
+      <c r="B205" s="1">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="C205" s="1">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="D205" s="1">
+        <v>62.51</v>
+      </c>
+      <c r="E205" s="1">
+        <v>62.51</v>
+      </c>
+      <c r="F205" s="1">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>43443.54167835648</v>
+      </c>
+      <c r="B206" s="1">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="C206" s="1">
+        <v>80.59</v>
+      </c>
+      <c r="D206" s="1">
+        <v>62.21</v>
+      </c>
+      <c r="E206" s="1">
+        <v>62.21</v>
+      </c>
+      <c r="F206" s="1">
+        <v>65.209999999999994</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>43443.583345081017</v>
+      </c>
+      <c r="B207" s="1">
+        <v>79.94</v>
+      </c>
+      <c r="C207" s="1">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="D207" s="1">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="E207" s="1">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="F207" s="1">
+        <v>66.33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>43443.625011805554</v>
+      </c>
+      <c r="B208" s="1">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="C208" s="1">
+        <v>82.22</v>
+      </c>
+      <c r="D208" s="1">
+        <v>80.23</v>
+      </c>
+      <c r="E208" s="1">
+        <v>80.23</v>
+      </c>
+      <c r="F208" s="1">
+        <v>71.06</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>43443.666678530091</v>
+      </c>
+      <c r="B209" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="C209" s="1">
+        <v>90.24</v>
+      </c>
+      <c r="D209" s="1">
+        <v>86.23</v>
+      </c>
+      <c r="E209" s="1">
+        <v>86.23</v>
+      </c>
+      <c r="F209" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>43443.708345254629</v>
+      </c>
+      <c r="B210" s="1">
+        <v>82.98</v>
+      </c>
+      <c r="C210" s="1">
+        <v>113.86</v>
+      </c>
+      <c r="D210" s="1">
+        <v>87.06</v>
+      </c>
+      <c r="E210" s="1">
+        <v>87.06</v>
+      </c>
+      <c r="F210" s="1">
+        <v>98.81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>43443.750011979166</v>
+      </c>
+      <c r="B211" s="1">
+        <v>108.7</v>
+      </c>
+      <c r="C211" s="1">
+        <v>105.07</v>
+      </c>
+      <c r="D211" s="1">
+        <v>113.08</v>
+      </c>
+      <c r="E211" s="1">
+        <v>113.08</v>
+      </c>
+      <c r="F211" s="1">
+        <v>96.45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>43443.791678703703</v>
+      </c>
+      <c r="B212" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="C212" s="1">
+        <v>97.95</v>
+      </c>
+      <c r="D212" s="1">
+        <v>94.12</v>
+      </c>
+      <c r="E212" s="1">
+        <v>94.12</v>
+      </c>
+      <c r="F212" s="1">
+        <v>93.31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>43443.83334542824</v>
+      </c>
+      <c r="B213" s="1">
+        <v>95.17</v>
+      </c>
+      <c r="C213" s="1">
+        <v>99.69</v>
+      </c>
+      <c r="D213" s="1">
+        <v>94.97</v>
+      </c>
+      <c r="E213" s="1">
+        <v>94.97</v>
+      </c>
+      <c r="F213" s="1">
+        <v>89.03</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>43443.875012152777</v>
+      </c>
+      <c r="B214" s="1">
+        <v>103.48</v>
+      </c>
+      <c r="C214" s="1">
+        <v>101.7</v>
+      </c>
+      <c r="D214" s="1">
+        <v>81.33</v>
+      </c>
+      <c r="E214" s="1">
+        <v>81.33</v>
+      </c>
+      <c r="F214" s="1">
+        <v>78.47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>43443.916678877315</v>
+      </c>
+      <c r="B215" s="1">
+        <v>109.16</v>
+      </c>
+      <c r="C215" s="1">
+        <v>97.49</v>
+      </c>
+      <c r="D215" s="1">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="E215" s="1">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="F215" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>43443.958345601852</v>
+      </c>
+      <c r="B216" s="1">
+        <v>84.01</v>
+      </c>
+      <c r="C216" s="1">
+        <v>84.89</v>
+      </c>
+      <c r="D216" s="1">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="E216" s="1">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="F216" s="1">
+        <v>67.31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>43444.000012326389</v>
+      </c>
+      <c r="B217" s="1">
+        <v>148.93</v>
+      </c>
+      <c r="C217" s="1">
+        <v>207.73</v>
+      </c>
+      <c r="D217" s="1">
+        <v>64</v>
+      </c>
+      <c r="E217" s="1">
+        <v>64</v>
+      </c>
+      <c r="F217" s="1">
+        <v>62.54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>43444.041679050926</v>
+      </c>
+      <c r="B218" s="1">
+        <v>104.11</v>
+      </c>
+      <c r="C218" s="1">
+        <v>75.97</v>
+      </c>
+      <c r="D218" s="1">
+        <v>73.25</v>
+      </c>
+      <c r="E218" s="1">
+        <v>73.25</v>
+      </c>
+      <c r="F218" s="1">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>43444.083345775463</v>
+      </c>
+      <c r="B219" s="1">
+        <v>81.36</v>
+      </c>
+      <c r="C219" s="1">
+        <v>56.49</v>
+      </c>
+      <c r="D219" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E219" s="1">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F219" s="1">
+        <v>50.56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>43444.125012500001</v>
+      </c>
+      <c r="B220" s="1">
+        <v>47.13</v>
+      </c>
+      <c r="C220" s="1">
+        <v>51.52</v>
+      </c>
+      <c r="D220" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="E220" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="F220" s="1">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>43444.166679224538</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45.25</v>
+      </c>
+      <c r="C221" s="1">
+        <v>52.68</v>
+      </c>
+      <c r="D221" s="1">
+        <v>52.21</v>
+      </c>
+      <c r="E221" s="1">
+        <v>52.21</v>
+      </c>
+      <c r="F221" s="1">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>43444.208345949075</v>
+      </c>
+      <c r="B222" s="1">
+        <v>57.41</v>
+      </c>
+      <c r="C222" s="1">
+        <v>59.65</v>
+      </c>
+      <c r="D222" s="1">
+        <v>67.27</v>
+      </c>
+      <c r="E222" s="1">
+        <v>67.27</v>
+      </c>
+      <c r="F222" s="1">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>43444.250012673612</v>
+      </c>
+      <c r="B223" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="C223" s="1">
+        <v>86.33</v>
+      </c>
+      <c r="D223" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="E223" s="1">
+        <v>65.66</v>
+      </c>
+      <c r="F223" s="1">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>43444.291679398149</v>
+      </c>
+      <c r="B224" s="1">
+        <v>82.91</v>
+      </c>
+      <c r="C224" s="1">
+        <v>116.57</v>
+      </c>
+      <c r="D224" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>88.65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>43444.333346122687</v>
+      </c>
+      <c r="B225" s="1">
+        <v>96.97</v>
+      </c>
+      <c r="C225" s="1">
+        <v>94.64</v>
+      </c>
+      <c r="D225" s="1">
+        <v>99.48</v>
+      </c>
+      <c r="E225" s="1">
+        <v>99.48</v>
+      </c>
+      <c r="F225" s="1">
+        <v>80.540000000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>43444.375012847224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>82.99</v>
+      </c>
+      <c r="C226" s="1">
+        <v>93.04</v>
+      </c>
+      <c r="D226" s="1">
+        <v>89.06</v>
+      </c>
+      <c r="E226" s="1">
+        <v>89.06</v>
+      </c>
+      <c r="F226" s="1">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>43444.416679571761</v>
+      </c>
+      <c r="B227" s="1">
+        <v>83.22</v>
+      </c>
+      <c r="C227" s="1">
+        <v>102.57</v>
+      </c>
+      <c r="D227" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="E227" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="F227" s="1">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>43444.458346296298</v>
+      </c>
+      <c r="B228" s="1">
+        <v>83.12</v>
+      </c>
+      <c r="C228" s="1">
+        <v>86.49</v>
+      </c>
+      <c r="D228" s="1">
+        <v>94.11</v>
+      </c>
+      <c r="E228" s="1">
+        <v>94.11</v>
+      </c>
+      <c r="F228" s="1">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>43444.500013020835</v>
+      </c>
+      <c r="B229" s="1">
+        <v>80.92</v>
+      </c>
+      <c r="C229" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="D229" s="1">
+        <v>86.52</v>
+      </c>
+      <c r="E229" s="1">
+        <v>86.52</v>
+      </c>
+      <c r="F229" s="1">
+        <v>81.69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>43444.541679745373</v>
+      </c>
+      <c r="B230" s="1">
+        <v>86.26</v>
+      </c>
+      <c r="C230" s="1">
+        <v>96.31</v>
+      </c>
+      <c r="D230" s="1">
+        <v>92.69</v>
+      </c>
+      <c r="E230" s="1">
+        <v>92.69</v>
+      </c>
+      <c r="F230" s="1">
+        <v>84.33</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>43444.58334646991</v>
+      </c>
+      <c r="B231" s="1">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="C231" s="1">
+        <v>90.91</v>
+      </c>
+      <c r="D231" s="1">
+        <v>140.16999999999999</v>
+      </c>
+      <c r="E231" s="1">
+        <v>140.16999999999999</v>
+      </c>
+      <c r="F231" s="1">
+        <v>80.650000000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>43444.625013194447</v>
+      </c>
+      <c r="B232" s="1">
+        <v>88.69</v>
+      </c>
+      <c r="C232" s="1">
+        <v>100.1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>99.02</v>
+      </c>
+      <c r="E232" s="1">
+        <v>99.02</v>
+      </c>
+      <c r="F232" s="1">
+        <v>91.55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>43444.666679918984</v>
+      </c>
+      <c r="B233" s="1">
+        <v>86.6</v>
+      </c>
+      <c r="C233" s="1">
+        <v>141.06</v>
+      </c>
+      <c r="D233" s="1">
+        <v>99.61</v>
+      </c>
+      <c r="E233" s="1">
+        <v>99.61</v>
+      </c>
+      <c r="F233" s="1">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>43444.708346643522</v>
+      </c>
+      <c r="B234" s="1">
+        <v>83.45</v>
+      </c>
+      <c r="C234" s="1">
+        <v>104.08</v>
+      </c>
+      <c r="D234" s="1">
+        <v>91.88</v>
+      </c>
+      <c r="E234" s="1">
+        <v>91.88</v>
+      </c>
+      <c r="F234" s="1">
+        <v>105.15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>43444.750013368059</v>
+      </c>
+      <c r="B235" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="C235" s="1">
+        <v>97.42</v>
+      </c>
+      <c r="D235" s="1">
+        <v>97.04</v>
+      </c>
+      <c r="E235" s="1">
+        <v>97.04</v>
+      </c>
+      <c r="F235" s="1">
+        <v>94.67</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>43444.791680092596</v>
+      </c>
+      <c r="B236" s="1">
+        <v>84.52</v>
+      </c>
+      <c r="C236" s="1">
+        <v>98.31</v>
+      </c>
+      <c r="D236" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="E236" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="F236" s="1">
+        <v>99.64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>43444.833346817133</v>
+      </c>
+      <c r="B237" s="1">
+        <v>85.23</v>
+      </c>
+      <c r="C237" s="1">
+        <v>99.06</v>
+      </c>
+      <c r="D237" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="E237" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="F237" s="1">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>43444.875013541663</v>
+      </c>
+      <c r="B238" s="1">
+        <v>95.46</v>
+      </c>
+      <c r="C238" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="D238" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="E238" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="F238" s="1">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>43444.9166802662</v>
+      </c>
+      <c r="B239" s="1">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="C239" s="1">
+        <v>104.64</v>
+      </c>
+      <c r="D239" s="1">
+        <v>74.59</v>
+      </c>
+      <c r="E239" s="1">
+        <v>74.59</v>
+      </c>
+      <c r="F239" s="1">
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>43444.958346990737</v>
+      </c>
+      <c r="B240" s="1">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="C240" s="1">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="D240" s="1">
+        <v>83.06</v>
+      </c>
+      <c r="E240" s="1">
+        <v>83.06</v>
+      </c>
+      <c r="F240" s="1">
+        <v>75.27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>43445.000013715275</v>
+      </c>
+      <c r="B241" s="1">
+        <v>83.12</v>
+      </c>
+      <c r="C241" s="1">
+        <v>103.88</v>
+      </c>
+      <c r="D241" s="1">
+        <v>72.58</v>
+      </c>
+      <c r="E241" s="1">
+        <v>72.58</v>
+      </c>
+      <c r="F241" s="1">
+        <v>66.760000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3755,733 +5194,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
     </row>
   </sheetData>

--- a/transportation_systems/all_electric_vessels/Prices_modified.xlsx
+++ b/transportation_systems/all_electric_vessels/Prices_modified.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61109DC-2346-0344-A0D8-FBB77B3D37AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +79,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,22 +356,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -387,15 +388,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43435.041666666664</v>
       </c>
       <c r="B2" s="1">
-        <v>89.14</v>
+        <v>83.778167999999994</v>
       </c>
       <c r="C2" s="1">
-        <v>99.68</v>
+        <v>83.778167999999994</v>
       </c>
       <c r="D2" s="1">
         <v>100.34</v>
@@ -404,18 +405,18 @@
         <v>100.34</v>
       </c>
       <c r="F2" s="1">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.522499000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43435.083333333336</v>
       </c>
       <c r="B3" s="1">
-        <v>76.63</v>
+        <v>77.660049000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>82.56</v>
+        <v>77.660049000000001</v>
       </c>
       <c r="D3" s="1">
         <v>88.18</v>
@@ -424,18 +425,18 @@
         <v>88.18</v>
       </c>
       <c r="F3" s="1">
-        <v>80.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53.183643000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43435.125000057873</v>
       </c>
       <c r="B4" s="1">
-        <v>74.489999999999995</v>
+        <v>68.658730000000006</v>
       </c>
       <c r="C4" s="1">
-        <v>70.239999999999995</v>
+        <v>68.658730000000006</v>
       </c>
       <c r="D4" s="1">
         <v>84.29</v>
@@ -444,18 +445,18 @@
         <v>84.29</v>
       </c>
       <c r="F4" s="1">
-        <v>69.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52.010207999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43435.16666678241</v>
       </c>
       <c r="B5" s="1">
-        <v>52.34</v>
+        <v>74.928207</v>
       </c>
       <c r="C5" s="1">
-        <v>48.73</v>
+        <v>74.928207</v>
       </c>
       <c r="D5" s="1">
         <v>78.33</v>
@@ -464,18 +465,18 @@
         <v>78.33</v>
       </c>
       <c r="F5" s="1">
-        <v>76.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.934814000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43435.208333506947</v>
       </c>
       <c r="B6" s="1">
-        <v>55.45</v>
+        <v>92.921272000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>51.26</v>
+        <v>92.921272000000002</v>
       </c>
       <c r="D6" s="1">
         <v>75.540000000000006</v>
@@ -484,18 +485,18 @@
         <v>75.540000000000006</v>
       </c>
       <c r="F6" s="1">
-        <v>64.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.930304999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43435.250000231485</v>
       </c>
       <c r="B7" s="1">
-        <v>54.88</v>
+        <v>101.712189</v>
       </c>
       <c r="C7" s="1">
-        <v>67.69</v>
+        <v>101.712189</v>
       </c>
       <c r="D7" s="1">
         <v>69.09</v>
@@ -504,18 +505,18 @@
         <v>69.09</v>
       </c>
       <c r="F7" s="1">
-        <v>69.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.051876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43435.291666956022</v>
       </c>
       <c r="B8" s="1">
-        <v>65.58</v>
+        <v>147.83634900000001</v>
       </c>
       <c r="C8" s="1">
-        <v>50.55</v>
+        <v>147.83634900000001</v>
       </c>
       <c r="D8" s="1">
         <v>78.900000000000006</v>
@@ -524,18 +525,18 @@
         <v>78.900000000000006</v>
       </c>
       <c r="F8" s="1">
-        <v>49.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.419750000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43435.333333680559</v>
       </c>
       <c r="B9" s="1">
-        <v>48.93</v>
+        <v>103.17939800000001</v>
       </c>
       <c r="C9" s="1">
-        <v>59.55</v>
+        <v>103.17939800000001</v>
       </c>
       <c r="D9" s="1">
         <v>58.32</v>
@@ -544,18 +545,18 @@
         <v>58.32</v>
       </c>
       <c r="F9" s="1">
-        <v>59.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.487762000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43435.375000405096</v>
       </c>
       <c r="B10" s="1">
-        <v>54.54</v>
+        <v>123.74299600000001</v>
       </c>
       <c r="C10" s="1">
-        <v>49.06</v>
+        <v>123.74299600000001</v>
       </c>
       <c r="D10" s="1">
         <v>64.599999999999994</v>
@@ -564,18 +565,18 @@
         <v>64.599999999999994</v>
       </c>
       <c r="F10" s="1">
-        <v>50.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.145488999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43435.416667129626</v>
       </c>
       <c r="B11" s="1">
-        <v>13.26</v>
+        <v>110.857063</v>
       </c>
       <c r="C11" s="1">
-        <v>15.41</v>
+        <v>110.857063</v>
       </c>
       <c r="D11" s="1">
         <v>52.91</v>
@@ -584,18 +585,18 @@
         <v>52.91</v>
       </c>
       <c r="F11" s="1">
-        <v>52.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.852317999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43435.458333854163</v>
       </c>
       <c r="B12" s="1">
-        <v>18.48</v>
+        <v>100.498566</v>
       </c>
       <c r="C12" s="1">
-        <v>19.14</v>
+        <v>100.498566</v>
       </c>
       <c r="D12" s="1">
         <v>52.25</v>
@@ -604,18 +605,18 @@
         <v>52.25</v>
       </c>
       <c r="F12" s="1">
-        <v>58.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.259666000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43435.500000578701</v>
       </c>
       <c r="B13" s="1">
-        <v>41.55</v>
+        <v>94.764763000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>50.53</v>
+        <v>94.764763000000002</v>
       </c>
       <c r="D13" s="1">
         <v>55.7</v>
@@ -624,18 +625,18 @@
         <v>55.7</v>
       </c>
       <c r="F13" s="1">
-        <v>62.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.943702999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43435.541667303238</v>
       </c>
       <c r="B14" s="1">
-        <v>49.75</v>
+        <v>83.7911</v>
       </c>
       <c r="C14" s="1">
-        <v>51.57</v>
+        <v>83.7911</v>
       </c>
       <c r="D14" s="1">
         <v>56.05</v>
@@ -644,18 +645,18 @@
         <v>56.05</v>
       </c>
       <c r="F14" s="1">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.128281000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43435.583334027775</v>
       </c>
       <c r="B15" s="1">
-        <v>57.76</v>
+        <v>88.258514000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>61.6</v>
+        <v>88.258514000000005</v>
       </c>
       <c r="D15" s="1">
         <v>78.760000000000005</v>
@@ -664,18 +665,18 @@
         <v>78.760000000000005</v>
       </c>
       <c r="F15" s="1">
-        <v>123.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.100562999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43435.625000752312</v>
       </c>
       <c r="B16" s="1">
-        <v>37.200000000000003</v>
+        <v>93.334441999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>20.8</v>
+        <v>93.334441999999996</v>
       </c>
       <c r="D16" s="1">
         <v>97.69</v>
@@ -684,18 +685,18 @@
         <v>97.69</v>
       </c>
       <c r="F16" s="1">
-        <v>143.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.039680000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43435.666667476849</v>
       </c>
       <c r="B17" s="1">
-        <v>9.99</v>
+        <v>95.817062000000007</v>
       </c>
       <c r="C17" s="1">
-        <v>114.4</v>
+        <v>95.817062000000007</v>
       </c>
       <c r="D17" s="1">
         <v>97.84</v>
@@ -704,18 +705,18 @@
         <v>97.84</v>
       </c>
       <c r="F17" s="1">
-        <v>169.71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.857299999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43435.708334201387</v>
       </c>
       <c r="B18" s="1">
-        <v>116.44</v>
+        <v>92.830298999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>92.92</v>
+        <v>92.830298999999997</v>
       </c>
       <c r="D18" s="1">
         <v>122.89</v>
@@ -724,18 +725,18 @@
         <v>122.89</v>
       </c>
       <c r="F18" s="1">
-        <v>147.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.003555000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43435.750000925924</v>
       </c>
       <c r="B19" s="1">
-        <v>106.24</v>
+        <v>106.114464</v>
       </c>
       <c r="C19" s="1">
-        <v>132.58000000000001</v>
+        <v>106.114464</v>
       </c>
       <c r="D19" s="1">
         <v>122.87</v>
@@ -744,18 +745,18 @@
         <v>122.87</v>
       </c>
       <c r="F19" s="1">
-        <v>144.19999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.085235999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43435.791667650461</v>
       </c>
       <c r="B20" s="1">
-        <v>104.2</v>
+        <v>102.248558</v>
       </c>
       <c r="C20" s="1">
-        <v>103.94</v>
+        <v>102.248558</v>
       </c>
       <c r="D20" s="1">
         <v>114.14</v>
@@ -764,18 +765,18 @@
         <v>114.14</v>
       </c>
       <c r="F20" s="1">
-        <v>113.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71.926254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43435.833334374998</v>
       </c>
       <c r="B21" s="1">
-        <v>151.13999999999999</v>
+        <v>110.27446</v>
       </c>
       <c r="C21" s="1">
-        <v>110.28</v>
+        <v>110.27446</v>
       </c>
       <c r="D21" s="1">
         <v>159.68</v>
@@ -784,18 +785,18 @@
         <v>159.68</v>
       </c>
       <c r="F21" s="1">
-        <v>114.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.628815000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43435.875001099535</v>
       </c>
       <c r="B22" s="1">
-        <v>88.01</v>
+        <v>95.325210999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>79.239999999999995</v>
+        <v>95.325210999999996</v>
       </c>
       <c r="D22" s="1">
         <v>93.41</v>
@@ -804,18 +805,18 @@
         <v>93.41</v>
       </c>
       <c r="F22" s="1">
-        <v>99.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.372765000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43435.916667824073</v>
       </c>
       <c r="B23" s="1">
-        <v>76.06</v>
+        <v>89.841431</v>
       </c>
       <c r="C23" s="1">
-        <v>69.92</v>
+        <v>89.841431</v>
       </c>
       <c r="D23" s="1">
         <v>81.78</v>
@@ -824,18 +825,18 @@
         <v>81.78</v>
       </c>
       <c r="F23" s="1">
-        <v>76.61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.515056999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43435.95833454861</v>
       </c>
       <c r="B24" s="1">
-        <v>65.489999999999995</v>
+        <v>86.460457000000005</v>
       </c>
       <c r="C24" s="1">
-        <v>55.47</v>
+        <v>86.460457000000005</v>
       </c>
       <c r="D24" s="1">
         <v>71.52</v>
@@ -844,18 +845,18 @@
         <v>71.52</v>
       </c>
       <c r="F24" s="1">
-        <v>62.29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69.334423000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43436.000001273147</v>
       </c>
       <c r="B25" s="1">
-        <v>52.82</v>
+        <v>121.14997099999999</v>
       </c>
       <c r="C25" s="1">
-        <v>47.57</v>
+        <v>121.14997099999999</v>
       </c>
       <c r="D25" s="1">
         <v>59.54</v>
@@ -864,18 +865,18 @@
         <v>59.54</v>
       </c>
       <c r="F25" s="1">
-        <v>47.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.997551000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43436.041667997684</v>
       </c>
       <c r="B26" s="1">
-        <v>50.06</v>
+        <v>81.955703999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>44.47</v>
+        <v>81.955703999999997</v>
       </c>
       <c r="D26" s="1">
         <v>53.28</v>
@@ -884,18 +885,18 @@
         <v>53.28</v>
       </c>
       <c r="F26" s="1">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.813381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43436.083334722221</v>
       </c>
       <c r="B27" s="1">
-        <v>35.04</v>
+        <v>79.482337999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>51.71</v>
+        <v>79.482337999999999</v>
       </c>
       <c r="D27" s="1">
         <v>53.33</v>
@@ -904,18 +905,18 @@
         <v>53.33</v>
       </c>
       <c r="F27" s="1">
-        <v>61.79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.328434000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43436.125001446759</v>
       </c>
       <c r="B28" s="1">
-        <v>13.88</v>
+        <v>74.982613000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>9.15</v>
+        <v>74.982613000000001</v>
       </c>
       <c r="D28" s="1">
         <v>55.9</v>
@@ -924,18 +925,18 @@
         <v>55.9</v>
       </c>
       <c r="F28" s="1">
-        <v>56.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.334468999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43436.166666666664</v>
       </c>
       <c r="B29" s="1">
-        <v>13.59</v>
+        <v>76.342117000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>6.02</v>
+        <v>76.342117000000002</v>
       </c>
       <c r="D29" s="1">
         <v>52.75</v>
@@ -944,18 +945,18 @@
         <v>52.75</v>
       </c>
       <c r="F29" s="1">
-        <v>53.67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.820618000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43436.208333333336</v>
       </c>
       <c r="B30" s="1">
-        <v>5.69</v>
+        <v>79.233551000000006</v>
       </c>
       <c r="C30" s="1">
-        <v>14.06</v>
+        <v>79.233551000000006</v>
       </c>
       <c r="D30" s="1">
         <v>51.73</v>
@@ -964,18 +965,18 @@
         <v>51.73</v>
       </c>
       <c r="F30" s="1">
-        <v>48.98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53.496051999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43436.250001562497</v>
       </c>
       <c r="B31" s="1">
-        <v>8.4</v>
+        <v>127.328812</v>
       </c>
       <c r="C31" s="1">
-        <v>10.26</v>
+        <v>127.328812</v>
       </c>
       <c r="D31" s="1">
         <v>39.9</v>
@@ -983,19 +984,19 @@
       <c r="E31" s="1">
         <v>39.9</v>
       </c>
-      <c r="F31" s="1">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>59.359762000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43436.291668287035</v>
       </c>
       <c r="B32" s="1">
-        <v>11.27</v>
+        <v>117.57679</v>
       </c>
       <c r="C32" s="1">
-        <v>15.53</v>
+        <v>117.57679</v>
       </c>
       <c r="D32" s="1">
         <v>13.53</v>
@@ -1004,18 +1005,18 @@
         <v>13.53</v>
       </c>
       <c r="F32" s="1">
-        <v>25.73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.002654999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43436.333335011572</v>
       </c>
       <c r="B33" s="1">
-        <v>17.86</v>
+        <v>105.6324</v>
       </c>
       <c r="C33" s="1">
-        <v>5.24</v>
+        <v>105.6324</v>
       </c>
       <c r="D33" s="1">
         <v>48.66</v>
@@ -1024,18 +1025,18 @@
         <v>48.66</v>
       </c>
       <c r="F33" s="1">
-        <v>47.15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.474739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43436.375001736109</v>
       </c>
       <c r="B34" s="1">
-        <v>25.82</v>
+        <v>106.58545700000001</v>
       </c>
       <c r="C34" s="1">
-        <v>13.68</v>
+        <v>106.58545700000001</v>
       </c>
       <c r="D34" s="1">
         <v>46.63</v>
@@ -1044,18 +1045,18 @@
         <v>46.63</v>
       </c>
       <c r="F34" s="1">
-        <v>53.82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.003815000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43436.416668460646</v>
       </c>
       <c r="B35" s="1">
-        <v>-41.76</v>
+        <v>105.151779</v>
       </c>
       <c r="C35" s="1">
-        <v>7.46</v>
+        <v>105.151779</v>
       </c>
       <c r="D35" s="1">
         <v>68.48</v>
@@ -1064,18 +1065,18 @@
         <v>68.48</v>
       </c>
       <c r="F35" s="1">
-        <v>54.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.979679000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43436.458335185183</v>
       </c>
       <c r="B36" s="1">
-        <v>-124.68</v>
+        <v>110.15876</v>
       </c>
       <c r="C36" s="1">
-        <v>15.28</v>
+        <v>110.15876</v>
       </c>
       <c r="D36" s="1">
         <v>72.73</v>
@@ -1084,18 +1085,18 @@
         <v>72.73</v>
       </c>
       <c r="F36" s="1">
-        <v>121.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.744492000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43436.500001909721</v>
       </c>
       <c r="B37" s="1">
-        <v>-50.23</v>
+        <v>87.708893000000003</v>
       </c>
       <c r="C37" s="1">
-        <v>-37.36</v>
+        <v>87.708893000000003</v>
       </c>
       <c r="D37" s="1">
         <v>109.18</v>
@@ -1104,18 +1105,18 @@
         <v>109.18</v>
       </c>
       <c r="F37" s="1">
-        <v>118.69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.515872999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43436.541668634258</v>
       </c>
       <c r="B38" s="1">
-        <v>-115.33</v>
+        <v>79.618622000000002</v>
       </c>
       <c r="C38" s="1">
-        <v>-55.44</v>
+        <v>79.618622000000002</v>
       </c>
       <c r="D38" s="1">
         <v>97.26</v>
@@ -1124,18 +1125,18 @@
         <v>97.26</v>
       </c>
       <c r="F38" s="1">
-        <v>99.86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.965767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43436.583335358795</v>
       </c>
       <c r="B39" s="1">
-        <v>-213.08</v>
+        <v>82.316604999999996</v>
       </c>
       <c r="C39" s="1">
-        <v>-21.08</v>
+        <v>82.316604999999996</v>
       </c>
       <c r="D39" s="1">
         <v>126.38</v>
@@ -1144,18 +1145,18 @@
         <v>126.38</v>
       </c>
       <c r="F39" s="1">
-        <v>156.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.459952999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43436.625002083332</v>
       </c>
       <c r="B40" s="1">
-        <v>-48.25</v>
+        <v>78.144385999999997</v>
       </c>
       <c r="C40" s="1">
-        <v>-5</v>
+        <v>78.144385999999997</v>
       </c>
       <c r="D40" s="1">
         <v>96.85</v>
@@ -1164,18 +1165,18 @@
         <v>96.85</v>
       </c>
       <c r="F40" s="1">
-        <v>148.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.079002000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43436.666668807869</v>
       </c>
       <c r="B41" s="1">
-        <v>23.06</v>
+        <v>94.000793000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>53.29</v>
+        <v>94.000793000000002</v>
       </c>
       <c r="D41" s="1">
         <v>111.58</v>
@@ -1184,18 +1185,18 @@
         <v>111.58</v>
       </c>
       <c r="F41" s="1">
-        <v>143.08000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.028506999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43436.708335532407</v>
       </c>
       <c r="B42" s="1">
-        <v>63.61</v>
+        <v>79.499527</v>
       </c>
       <c r="C42" s="1">
-        <v>16.940000000000001</v>
+        <v>79.499527</v>
       </c>
       <c r="D42" s="1">
         <v>86.58</v>
@@ -1204,18 +1205,18 @@
         <v>86.58</v>
       </c>
       <c r="F42" s="1">
-        <v>120.86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.193268000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43436.750002256944</v>
       </c>
       <c r="B43" s="1">
-        <v>19.43</v>
+        <v>83.883324000000002</v>
       </c>
       <c r="C43" s="1">
-        <v>16.63</v>
+        <v>83.883324000000002</v>
       </c>
       <c r="D43" s="1">
         <v>93.96</v>
@@ -1224,18 +1225,18 @@
         <v>93.96</v>
       </c>
       <c r="F43" s="1">
-        <v>121.93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.351005999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43436.791668981481</v>
       </c>
       <c r="B44" s="1">
-        <v>63.83</v>
+        <v>74.794250000000005</v>
       </c>
       <c r="C44" s="1">
-        <v>53.68</v>
+        <v>74.794250000000005</v>
       </c>
       <c r="D44" s="1">
         <v>80.400000000000006</v>
@@ -1244,18 +1245,18 @@
         <v>80.400000000000006</v>
       </c>
       <c r="F44" s="1">
-        <v>123.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.643508999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43436.833335706018</v>
       </c>
       <c r="B45" s="1">
-        <v>85.75</v>
+        <v>76.370650999999995</v>
       </c>
       <c r="C45" s="1">
-        <v>82.47</v>
+        <v>76.370650999999995</v>
       </c>
       <c r="D45" s="1">
         <v>90.31</v>
@@ -1264,18 +1265,18 @@
         <v>90.31</v>
       </c>
       <c r="F45" s="1">
-        <v>104.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.556908000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43436.875002430555</v>
       </c>
       <c r="B46" s="1">
-        <v>86.69</v>
+        <v>91.149405999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>72.430000000000007</v>
+        <v>91.149405999999999</v>
       </c>
       <c r="D46" s="1">
         <v>80.91</v>
@@ -1284,18 +1285,18 @@
         <v>80.91</v>
       </c>
       <c r="F46" s="1">
-        <v>84.33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.642966999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43436.916669155093</v>
       </c>
       <c r="B47" s="1">
-        <v>69.680000000000007</v>
+        <v>74.035713000000001</v>
       </c>
       <c r="C47" s="1">
-        <v>64.69</v>
+        <v>74.035713000000001</v>
       </c>
       <c r="D47" s="1">
         <v>63.66</v>
@@ -1304,18 +1305,18 @@
         <v>63.66</v>
       </c>
       <c r="F47" s="1">
-        <v>71.569999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.90184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43436.95833587963</v>
       </c>
       <c r="B48" s="1">
-        <v>84.9</v>
+        <v>71.309830000000005</v>
       </c>
       <c r="C48" s="1">
-        <v>56.65</v>
+        <v>71.309830000000005</v>
       </c>
       <c r="D48" s="1">
         <v>69.239999999999995</v>
@@ -1324,18 +1325,18 @@
         <v>69.239999999999995</v>
       </c>
       <c r="F48" s="1">
-        <v>66.38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.696365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43437.000002604167</v>
       </c>
       <c r="B49" s="1">
-        <v>70.53</v>
+        <v>91.770531000000005</v>
       </c>
       <c r="C49" s="1">
-        <v>50</v>
+        <v>91.770531000000005</v>
       </c>
       <c r="D49" s="1">
         <v>60.15</v>
@@ -1344,18 +1345,18 @@
         <v>60.15</v>
       </c>
       <c r="F49" s="1">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.196350000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43437.041669328704</v>
       </c>
       <c r="B50" s="1">
-        <v>62.52</v>
+        <v>69.909858999999997</v>
       </c>
       <c r="C50" s="1">
-        <v>32.93</v>
+        <v>69.909858999999997</v>
       </c>
       <c r="D50" s="1">
         <v>50.57</v>
@@ -1364,18 +1365,18 @@
         <v>50.57</v>
       </c>
       <c r="F50" s="1">
-        <v>35.51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.129192000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43437.083336053242</v>
       </c>
       <c r="B51" s="1">
-        <v>56.13</v>
+        <v>69.635161999999994</v>
       </c>
       <c r="C51" s="1">
-        <v>42.42</v>
+        <v>69.635161999999994</v>
       </c>
       <c r="D51" s="1">
         <v>54.08</v>
@@ -1384,18 +1385,18 @@
         <v>54.08</v>
       </c>
       <c r="F51" s="1">
-        <v>46.78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47.827908000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43437.125002777779</v>
       </c>
       <c r="B52" s="1">
-        <v>44.65</v>
+        <v>64.919167000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>34.58</v>
+        <v>64.919167000000002</v>
       </c>
       <c r="D52" s="1">
         <v>49</v>
@@ -1404,18 +1405,18 @@
         <v>49</v>
       </c>
       <c r="F52" s="1">
-        <v>50.14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48.289878999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43437.166669502316</v>
       </c>
       <c r="B53" s="1">
-        <v>42.95</v>
+        <v>63.946426000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>31.03</v>
+        <v>63.946426000000002</v>
       </c>
       <c r="D53" s="1">
         <v>48.87</v>
@@ -1424,18 +1425,18 @@
         <v>48.87</v>
       </c>
       <c r="F53" s="1">
-        <v>41.71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.402813000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43437.208336226853</v>
       </c>
       <c r="B54" s="1">
-        <v>51.11</v>
+        <v>61.067390000000003</v>
       </c>
       <c r="C54" s="1">
-        <v>50.42</v>
+        <v>61.067390000000003</v>
       </c>
       <c r="D54" s="1">
         <v>51.34</v>
@@ -1444,18 +1445,18 @@
         <v>51.34</v>
       </c>
       <c r="F54" s="1">
-        <v>52.89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49.385899000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43437.25000295139</v>
       </c>
       <c r="B55" s="1">
-        <v>65.39</v>
+        <v>72.363624999999999</v>
       </c>
       <c r="C55" s="1">
-        <v>63.68</v>
+        <v>72.363624999999999</v>
       </c>
       <c r="D55" s="1">
         <v>64.28</v>
@@ -1464,18 +1465,18 @@
         <v>64.28</v>
       </c>
       <c r="F55" s="1">
-        <v>61.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.156096999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43437.291669675928</v>
       </c>
       <c r="B56" s="1">
-        <v>101.19</v>
+        <v>70.523132000000004</v>
       </c>
       <c r="C56" s="1">
-        <v>89.54</v>
+        <v>70.523132000000004</v>
       </c>
       <c r="D56" s="1">
         <v>85.77</v>
@@ -1484,18 +1485,18 @@
         <v>85.77</v>
       </c>
       <c r="F56" s="1">
-        <v>79.48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.416618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43437.333336400465</v>
       </c>
       <c r="B57" s="1">
-        <v>84.12</v>
+        <v>68.711067</v>
       </c>
       <c r="C57" s="1">
-        <v>64.959999999999994</v>
+        <v>68.711067</v>
       </c>
       <c r="D57" s="1">
         <v>69.88</v>
@@ -1504,18 +1505,18 @@
         <v>69.88</v>
       </c>
       <c r="F57" s="1">
-        <v>62.06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31.835132999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43437.375003125002</v>
       </c>
       <c r="B58" s="1">
-        <v>70.010000000000005</v>
+        <v>79.543327000000005</v>
       </c>
       <c r="C58" s="1">
-        <v>61.36</v>
+        <v>79.543327000000005</v>
       </c>
       <c r="D58" s="1">
         <v>60.1</v>
@@ -1524,18 +1525,18 @@
         <v>60.1</v>
       </c>
       <c r="F58" s="1">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.700184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43437.416669849539</v>
       </c>
       <c r="B59" s="1">
-        <v>68.61</v>
+        <v>73.275565999999998</v>
       </c>
       <c r="C59" s="1">
-        <v>64.45</v>
+        <v>73.275565999999998</v>
       </c>
       <c r="D59" s="1">
         <v>60.31</v>
@@ -1544,18 +1545,18 @@
         <v>60.31</v>
       </c>
       <c r="F59" s="1">
-        <v>61.89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.851123999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43437.458336574076</v>
       </c>
       <c r="B60" s="1">
-        <v>70.28</v>
+        <v>73.393585000000002</v>
       </c>
       <c r="C60" s="1">
-        <v>65.11</v>
+        <v>73.393585000000002</v>
       </c>
       <c r="D60" s="1">
         <v>59.36</v>
@@ -1564,18 +1565,18 @@
         <v>59.36</v>
       </c>
       <c r="F60" s="1">
-        <v>62.15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52.411591000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43437.500003298614</v>
       </c>
       <c r="B61" s="1">
-        <v>68.239999999999995</v>
+        <v>75.807845999999998</v>
       </c>
       <c r="C61" s="1">
-        <v>61.74</v>
+        <v>75.807845999999998</v>
       </c>
       <c r="D61" s="1">
         <v>59.61</v>
@@ -1584,18 +1585,18 @@
         <v>59.61</v>
       </c>
       <c r="F61" s="1">
-        <v>62.17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.864567000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43437.541670023151</v>
       </c>
       <c r="B62" s="1">
-        <v>64.099999999999994</v>
+        <v>77.100791999999998</v>
       </c>
       <c r="C62" s="1">
-        <v>57.72</v>
+        <v>77.100791999999998</v>
       </c>
       <c r="D62" s="1">
         <v>58.76</v>
@@ -1604,18 +1605,18 @@
         <v>58.76</v>
       </c>
       <c r="F62" s="1">
-        <v>60.59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.741397999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43437.583336747688</v>
       </c>
       <c r="B63" s="1">
-        <v>71.31</v>
+        <v>91.374222000000003</v>
       </c>
       <c r="C63" s="1">
-        <v>64.78</v>
+        <v>91.374222000000003</v>
       </c>
       <c r="D63" s="1">
         <v>67.959999999999994</v>
@@ -1624,18 +1625,18 @@
         <v>67.959999999999994</v>
       </c>
       <c r="F63" s="1">
-        <v>67.63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.468539999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43437.625003472225</v>
       </c>
       <c r="B64" s="1">
-        <v>62.89</v>
+        <v>97.715926999999994</v>
       </c>
       <c r="C64" s="1">
-        <v>85.48</v>
+        <v>97.715926999999994</v>
       </c>
       <c r="D64" s="1">
         <v>64.06</v>
@@ -1644,18 +1645,18 @@
         <v>64.06</v>
       </c>
       <c r="F64" s="1">
-        <v>90.11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53.387149999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43437.666670196762</v>
       </c>
       <c r="B65" s="1">
-        <v>112.21</v>
+        <v>104.51327499999999</v>
       </c>
       <c r="C65" s="1">
-        <v>86.46</v>
+        <v>104.51327499999999</v>
       </c>
       <c r="D65" s="1">
         <v>125.08</v>
@@ -1664,18 +1665,18 @@
         <v>125.08</v>
       </c>
       <c r="F65" s="1">
-        <v>99.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52.568562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43437.7083369213</v>
       </c>
       <c r="B66" s="1">
-        <v>80.569999999999993</v>
+        <v>96.642334000000005</v>
       </c>
       <c r="C66" s="1">
-        <v>85.29</v>
+        <v>96.642334000000005</v>
       </c>
       <c r="D66" s="1">
         <v>88.87</v>
@@ -1684,18 +1685,18 @@
         <v>88.87</v>
       </c>
       <c r="F66" s="1">
-        <v>130.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.245582999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43437.750003645837</v>
       </c>
       <c r="B67" s="1">
-        <v>74.930000000000007</v>
+        <v>116.993042</v>
       </c>
       <c r="C67" s="1">
-        <v>86.48</v>
+        <v>116.993042</v>
       </c>
       <c r="D67" s="1">
         <v>78.37</v>
@@ -1704,18 +1705,18 @@
         <v>78.37</v>
       </c>
       <c r="F67" s="1">
-        <v>120.38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.903380999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43437.791670370367</v>
       </c>
       <c r="B68" s="1">
-        <v>81.34</v>
+        <v>106.09421500000001</v>
       </c>
       <c r="C68" s="1">
-        <v>94.49</v>
+        <v>106.09421500000001</v>
       </c>
       <c r="D68" s="1">
         <v>83.14</v>
@@ -1724,18 +1725,18 @@
         <v>83.14</v>
       </c>
       <c r="F68" s="1">
-        <v>134.21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.646782000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43437.833337094904</v>
       </c>
       <c r="B69" s="1">
-        <v>114.66</v>
+        <v>86.528121999999996</v>
       </c>
       <c r="C69" s="1">
-        <v>138.07</v>
+        <v>86.528121999999996</v>
       </c>
       <c r="D69" s="1">
         <v>102.01</v>
@@ -1744,18 +1745,18 @@
         <v>102.01</v>
       </c>
       <c r="F69" s="1">
-        <v>137.33000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.950085000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43437.875003819441</v>
       </c>
       <c r="B70" s="1">
-        <v>107.86</v>
+        <v>82.066993999999994</v>
       </c>
       <c r="C70" s="1">
-        <v>83</v>
+        <v>82.066993999999994</v>
       </c>
       <c r="D70" s="1">
         <v>90.86</v>
@@ -1764,18 +1765,18 @@
         <v>90.86</v>
       </c>
       <c r="F70" s="1">
-        <v>82.75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.894077000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43437.916670543978</v>
       </c>
       <c r="B71" s="1">
-        <v>110.9</v>
+        <v>78.014633000000003</v>
       </c>
       <c r="C71" s="1">
-        <v>79.34</v>
+        <v>78.014633000000003</v>
       </c>
       <c r="D71" s="1">
         <v>84.23</v>
@@ -1784,18 +1785,18 @@
         <v>84.23</v>
       </c>
       <c r="F71" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.666634000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43437.958337268516</v>
       </c>
       <c r="B72" s="1">
-        <v>99.88</v>
+        <v>75.430901000000006</v>
       </c>
       <c r="C72" s="1">
-        <v>79.06</v>
+        <v>75.430901000000006</v>
       </c>
       <c r="D72" s="1">
         <v>79.010000000000005</v>
@@ -1804,18 +1805,18 @@
         <v>79.010000000000005</v>
       </c>
       <c r="F72" s="1">
-        <v>76.66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.695309000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43438.000003993053</v>
       </c>
       <c r="B73" s="1">
-        <v>95.17</v>
+        <v>81.083427</v>
       </c>
       <c r="C73" s="1">
-        <v>100.27</v>
+        <v>81.083427</v>
       </c>
       <c r="D73" s="1">
         <v>73.849999999999994</v>
@@ -1824,18 +1825,18 @@
         <v>73.849999999999994</v>
       </c>
       <c r="F73" s="1">
-        <v>71.91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.752949000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43438.04167071759</v>
       </c>
       <c r="B74" s="1">
-        <v>107.62</v>
+        <v>71.977988999999994</v>
       </c>
       <c r="C74" s="1">
-        <v>72.59</v>
+        <v>71.977988999999994</v>
       </c>
       <c r="D74" s="1">
         <v>85.53</v>
@@ -1844,18 +1845,18 @@
         <v>85.53</v>
       </c>
       <c r="F74" s="1">
-        <v>65.53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30.378509999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43438.083337442127</v>
       </c>
       <c r="B75" s="1">
-        <v>77.08</v>
+        <v>65.037300000000002</v>
       </c>
       <c r="C75" s="1">
-        <v>59.14</v>
+        <v>65.037300000000002</v>
       </c>
       <c r="D75" s="1">
         <v>64.290000000000006</v>
@@ -1864,18 +1865,18 @@
         <v>64.290000000000006</v>
       </c>
       <c r="F75" s="1">
-        <v>54.38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.044547999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43438.125004166664</v>
       </c>
       <c r="B76" s="1">
-        <v>72.180000000000007</v>
+        <v>61.198357000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>57.47</v>
+        <v>61.198357000000001</v>
       </c>
       <c r="D76" s="1">
         <v>58.56</v>
@@ -1884,18 +1885,18 @@
         <v>58.56</v>
       </c>
       <c r="F76" s="1">
-        <v>56.72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53.205303000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43438.166670891202</v>
       </c>
       <c r="B77" s="1">
-        <v>70.010000000000005</v>
+        <v>62.846091999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>62.74</v>
+        <v>62.846091999999999</v>
       </c>
       <c r="D77" s="1">
         <v>57.46</v>
@@ -1904,18 +1905,18 @@
         <v>57.46</v>
       </c>
       <c r="F77" s="1">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.146248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43438.208337615739</v>
       </c>
       <c r="B78" s="1">
-        <v>86.26</v>
+        <v>67.817688000000004</v>
       </c>
       <c r="C78" s="1">
-        <v>89.71</v>
+        <v>67.817688000000004</v>
       </c>
       <c r="D78" s="1">
         <v>71.66</v>
@@ -1924,18 +1925,18 @@
         <v>71.66</v>
       </c>
       <c r="F78" s="1">
-        <v>76.92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.979945999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43438.250004340276</v>
       </c>
       <c r="B79" s="1">
-        <v>114.19</v>
+        <v>84.686462000000006</v>
       </c>
       <c r="C79" s="1">
-        <v>142.51</v>
+        <v>84.686462000000006</v>
       </c>
       <c r="D79" s="1">
         <v>95.59</v>
@@ -1944,18 +1945,18 @@
         <v>95.59</v>
       </c>
       <c r="F79" s="1">
-        <v>118.68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.528038000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43438.291671064813</v>
       </c>
       <c r="B80" s="1">
-        <v>117</v>
+        <v>119.727135</v>
       </c>
       <c r="C80" s="1">
-        <v>111.14</v>
+        <v>119.727135</v>
       </c>
       <c r="D80" s="1">
         <v>103.98</v>
@@ -1964,18 +1965,18 @@
         <v>103.98</v>
       </c>
       <c r="F80" s="1">
-        <v>91.93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.136620000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43438.33333778935</v>
       </c>
       <c r="B81" s="1">
-        <v>117.73</v>
+        <v>115.060844</v>
       </c>
       <c r="C81" s="1">
-        <v>95.45</v>
+        <v>115.060844</v>
       </c>
       <c r="D81" s="1">
         <v>102.6</v>
@@ -1984,18 +1985,18 @@
         <v>102.6</v>
       </c>
       <c r="F81" s="1">
-        <v>84.09</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.910057000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43438.375004513888</v>
       </c>
       <c r="B82" s="1">
-        <v>123.22</v>
+        <v>101.108971</v>
       </c>
       <c r="C82" s="1">
-        <v>99.43</v>
+        <v>101.108971</v>
       </c>
       <c r="D82" s="1">
         <v>110.28</v>
@@ -2004,18 +2005,18 @@
         <v>110.28</v>
       </c>
       <c r="F82" s="1">
-        <v>89.17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.607452000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43438.416671238425</v>
       </c>
       <c r="B83" s="1">
-        <v>114.83</v>
+        <v>111.55497699999999</v>
       </c>
       <c r="C83" s="1">
-        <v>106.05</v>
+        <v>111.55497699999999</v>
       </c>
       <c r="D83" s="1">
         <v>104.71</v>
@@ -2024,18 +2025,18 @@
         <v>104.71</v>
       </c>
       <c r="F83" s="1">
-        <v>96.53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.497542999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43438.458337962962</v>
       </c>
       <c r="B84" s="1">
-        <v>99.67</v>
+        <v>106.742424</v>
       </c>
       <c r="C84" s="1">
-        <v>84.76</v>
+        <v>106.742424</v>
       </c>
       <c r="D84" s="1">
         <v>92.93</v>
@@ -2044,18 +2045,18 @@
         <v>92.93</v>
       </c>
       <c r="F84" s="1">
-        <v>78.86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.044769000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43438.500004687499</v>
       </c>
       <c r="B85" s="1">
-        <v>89.12</v>
+        <v>112.154083</v>
       </c>
       <c r="C85" s="1">
-        <v>87.83</v>
+        <v>112.154083</v>
       </c>
       <c r="D85" s="1">
         <v>87.61</v>
@@ -2064,18 +2065,18 @@
         <v>87.61</v>
       </c>
       <c r="F85" s="1">
-        <v>83.27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.811999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43438.541671412037</v>
       </c>
       <c r="B86" s="1">
-        <v>95.1</v>
+        <v>119.739632</v>
       </c>
       <c r="C86" s="1">
-        <v>101.76</v>
+        <v>119.739632</v>
       </c>
       <c r="D86" s="1">
         <v>94.37</v>
@@ -2084,18 +2085,18 @@
         <v>94.37</v>
       </c>
       <c r="F86" s="1">
-        <v>99.15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.310135000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43438.583338136574</v>
       </c>
       <c r="B87" s="1">
-        <v>95.85</v>
+        <v>280.78121900000002</v>
       </c>
       <c r="C87" s="1">
-        <v>101.27</v>
+        <v>280.78121900000002</v>
       </c>
       <c r="D87" s="1">
         <v>96.59</v>
@@ -2104,18 +2105,18 @@
         <v>96.59</v>
       </c>
       <c r="F87" s="1">
-        <v>106.31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.524619999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43438.625004861111</v>
       </c>
       <c r="B88" s="1">
-        <v>107.66</v>
+        <v>149.96107499999999</v>
       </c>
       <c r="C88" s="1">
-        <v>121.35</v>
+        <v>149.96107499999999</v>
       </c>
       <c r="D88" s="1">
         <v>104.81</v>
@@ -2124,18 +2125,18 @@
         <v>104.81</v>
       </c>
       <c r="F88" s="1">
-        <v>118.47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.591769999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43438.666671585648</v>
       </c>
       <c r="B89" s="1">
-        <v>130.06</v>
+        <v>309.10180700000001</v>
       </c>
       <c r="C89" s="1">
-        <v>97.25</v>
+        <v>309.10180700000001</v>
       </c>
       <c r="D89" s="1">
         <v>120.93</v>
@@ -2144,18 +2145,18 @@
         <v>120.93</v>
       </c>
       <c r="F89" s="1">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.565581999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43438.708338310185</v>
       </c>
       <c r="B90" s="1">
-        <v>104.35</v>
+        <v>290.982483</v>
       </c>
       <c r="C90" s="1">
-        <v>89.23</v>
+        <v>290.982483</v>
       </c>
       <c r="D90" s="1">
         <v>92.49</v>
@@ -2164,18 +2165,18 @@
         <v>92.49</v>
       </c>
       <c r="F90" s="1">
-        <v>82.33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75.899704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43438.750005034723</v>
       </c>
       <c r="B91" s="1">
-        <v>101.94</v>
+        <v>140.71549999999999</v>
       </c>
       <c r="C91" s="1">
-        <v>93.43</v>
+        <v>140.71549999999999</v>
       </c>
       <c r="D91" s="1">
         <v>86.52</v>
@@ -2184,18 +2185,18 @@
         <v>86.52</v>
       </c>
       <c r="F91" s="1">
-        <v>83.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94.184982000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43438.79167175926</v>
       </c>
       <c r="B92" s="1">
-        <v>102.52</v>
+        <v>181.60687300000001</v>
       </c>
       <c r="C92" s="1">
-        <v>101.5</v>
+        <v>181.60687300000001</v>
       </c>
       <c r="D92" s="1">
         <v>81.37</v>
@@ -2204,18 +2205,18 @@
         <v>81.37</v>
       </c>
       <c r="F92" s="1">
-        <v>95.16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147.129448</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43438.833338483797</v>
       </c>
       <c r="B93" s="1">
-        <v>112.44</v>
+        <v>104.313507</v>
       </c>
       <c r="C93" s="1">
-        <v>93.03</v>
+        <v>104.313507</v>
       </c>
       <c r="D93" s="1">
         <v>86.96</v>
@@ -2224,18 +2225,18 @@
         <v>86.96</v>
       </c>
       <c r="F93" s="1">
-        <v>88.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83.138863000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43438.875005208334</v>
       </c>
       <c r="B94" s="1">
-        <v>90.69</v>
+        <v>87.756134000000003</v>
       </c>
       <c r="C94" s="1">
-        <v>88.01</v>
+        <v>87.756134000000003</v>
       </c>
       <c r="D94" s="1">
         <v>81.38</v>
@@ -2244,18 +2245,18 @@
         <v>81.38</v>
       </c>
       <c r="F94" s="1">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.751891999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43438.916671932871</v>
       </c>
       <c r="B95" s="1">
-        <v>85.54</v>
+        <v>87.327788999999996</v>
       </c>
       <c r="C95" s="1">
-        <v>72.05</v>
+        <v>87.327788999999996</v>
       </c>
       <c r="D95" s="1">
         <v>82.07</v>
@@ -2264,18 +2265,18 @@
         <v>82.07</v>
       </c>
       <c r="F95" s="1">
-        <v>64.95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61.622818000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43438.958338657409</v>
       </c>
       <c r="B96" s="1">
-        <v>74.86</v>
+        <v>87.616141999999996</v>
       </c>
       <c r="C96" s="1">
-        <v>81.27</v>
+        <v>87.616141999999996</v>
       </c>
       <c r="D96" s="1">
         <v>73.25</v>
@@ -2284,18 +2285,18 @@
         <v>73.25</v>
       </c>
       <c r="F96" s="1">
-        <v>72.34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.840637000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43439.000005381946</v>
       </c>
       <c r="B97" s="1">
-        <v>92.13</v>
+        <v>114.04652400000001</v>
       </c>
       <c r="C97" s="1">
-        <v>105.29</v>
+        <v>114.04652400000001</v>
       </c>
       <c r="D97" s="1">
         <v>76.36</v>
@@ -2304,18 +2305,18 @@
         <v>76.36</v>
       </c>
       <c r="F97" s="1">
-        <v>66.02</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.146664000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43439.041672106483</v>
       </c>
       <c r="B98" s="1">
-        <v>65.599999999999994</v>
+        <v>83.295272999999995</v>
       </c>
       <c r="C98" s="1">
-        <v>61.45</v>
+        <v>83.295272999999995</v>
       </c>
       <c r="D98" s="1">
         <v>62.36</v>
@@ -2324,18 +2325,18 @@
         <v>62.36</v>
       </c>
       <c r="F98" s="1">
-        <v>57.54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54.694042000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43439.08333883102</v>
       </c>
       <c r="B99" s="1">
-        <v>50.94</v>
+        <v>74.774628000000007</v>
       </c>
       <c r="C99" s="1">
-        <v>54.38</v>
+        <v>74.774628000000007</v>
       </c>
       <c r="D99" s="1">
         <v>55.08</v>
@@ -2344,18 +2345,18 @@
         <v>55.08</v>
       </c>
       <c r="F99" s="1">
-        <v>54.82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59.111023000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43439.125005555557</v>
       </c>
       <c r="B100" s="1">
-        <v>46.46</v>
+        <v>65.732467999999997</v>
       </c>
       <c r="C100" s="1">
-        <v>50.49</v>
+        <v>65.732467999999997</v>
       </c>
       <c r="D100" s="1">
         <v>52.02</v>
@@ -2364,18 +2365,18 @@
         <v>52.02</v>
       </c>
       <c r="F100" s="1">
-        <v>52.34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.212508999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43439.166672280095</v>
       </c>
       <c r="B101" s="1">
-        <v>49.57</v>
+        <v>70.061745000000002</v>
       </c>
       <c r="C101" s="1">
-        <v>54.57</v>
+        <v>70.061745000000002</v>
       </c>
       <c r="D101" s="1">
         <v>54.81</v>
@@ -2384,18 +2385,18 @@
         <v>54.81</v>
       </c>
       <c r="F101" s="1">
-        <v>56.19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.800033999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43439.208339004632</v>
       </c>
       <c r="B102" s="1">
-        <v>59.82</v>
+        <v>71.140281999999999</v>
       </c>
       <c r="C102" s="1">
-        <v>54.45</v>
+        <v>71.140281999999999</v>
       </c>
       <c r="D102" s="1">
         <v>63.66</v>
@@ -2404,18 +2405,18 @@
         <v>63.66</v>
       </c>
       <c r="F102" s="1">
-        <v>55.16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.408923999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43439.250005729169</v>
       </c>
       <c r="B103" s="1">
-        <v>73.510000000000005</v>
+        <v>91.613570999999993</v>
       </c>
       <c r="C103" s="1">
-        <v>71.05</v>
+        <v>91.613570999999993</v>
       </c>
       <c r="D103" s="1">
         <v>74.41</v>
@@ -2424,18 +2425,18 @@
         <v>74.41</v>
       </c>
       <c r="F103" s="1">
-        <v>65.59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.500221000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43439.291672453706</v>
       </c>
       <c r="B104" s="1">
-        <v>82.62</v>
+        <v>112.719612</v>
       </c>
       <c r="C104" s="1">
-        <v>90.42</v>
+        <v>112.719612</v>
       </c>
       <c r="D104" s="1">
         <v>81.93</v>
@@ -2444,18 +2445,18 @@
         <v>81.93</v>
       </c>
       <c r="F104" s="1">
-        <v>80.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.031677000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43439.333339178243</v>
       </c>
       <c r="B105" s="1">
-        <v>73.25</v>
+        <v>115.61378499999999</v>
       </c>
       <c r="C105" s="1">
-        <v>67.59</v>
+        <v>115.61378499999999</v>
       </c>
       <c r="D105" s="1">
         <v>68.510000000000005</v>
@@ -2464,18 +2465,18 @@
         <v>68.510000000000005</v>
       </c>
       <c r="F105" s="1">
-        <v>62.01</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.559508999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43439.375005902781</v>
       </c>
       <c r="B106" s="1">
-        <v>90</v>
+        <v>116.026695</v>
       </c>
       <c r="C106" s="1">
-        <v>75.12</v>
+        <v>116.026695</v>
       </c>
       <c r="D106" s="1">
         <v>80.37</v>
@@ -2484,18 +2485,18 @@
         <v>80.37</v>
       </c>
       <c r="F106" s="1">
-        <v>68.17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.671402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43439.416672627318</v>
       </c>
       <c r="B107" s="1">
-        <v>85.73</v>
+        <v>130.65966800000001</v>
       </c>
       <c r="C107" s="1">
-        <v>94.91</v>
+        <v>130.65966800000001</v>
       </c>
       <c r="D107" s="1">
         <v>76.81</v>
@@ -2504,18 +2505,18 @@
         <v>76.81</v>
       </c>
       <c r="F107" s="1">
-        <v>89.59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.625076000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43439.458339351855</v>
       </c>
       <c r="B108" s="1">
-        <v>107.94</v>
+        <v>130.85408000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>111.17</v>
+        <v>130.85408000000001</v>
       </c>
       <c r="D108" s="1">
         <v>96.51</v>
@@ -2524,18 +2525,18 @@
         <v>96.51</v>
       </c>
       <c r="F108" s="1">
-        <v>104.67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.722290000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43439.500006076392</v>
       </c>
       <c r="B109" s="1">
-        <v>109.87</v>
+        <v>185.120499</v>
       </c>
       <c r="C109" s="1">
-        <v>103.35</v>
+        <v>185.120499</v>
       </c>
       <c r="D109" s="1">
         <v>96.77</v>
@@ -2544,18 +2545,18 @@
         <v>96.77</v>
       </c>
       <c r="F109" s="1">
-        <v>98.12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.778229000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43439.54167280093</v>
       </c>
       <c r="B110" s="1">
-        <v>112.65</v>
+        <v>167.098724</v>
       </c>
       <c r="C110" s="1">
-        <v>92.33</v>
+        <v>167.098724</v>
       </c>
       <c r="D110" s="1">
         <v>100.27</v>
@@ -2564,18 +2565,18 @@
         <v>100.27</v>
       </c>
       <c r="F110" s="1">
-        <v>91.14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68.646034</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43439.583339525459</v>
       </c>
       <c r="B111" s="1">
-        <v>113.78</v>
+        <v>216.69697600000001</v>
       </c>
       <c r="C111" s="1">
-        <v>127.67</v>
+        <v>216.69697600000001</v>
       </c>
       <c r="D111" s="1">
         <v>101.46</v>
@@ -2584,18 +2585,18 @@
         <v>101.46</v>
       </c>
       <c r="F111" s="1">
-        <v>126.11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74.003051999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43439.625006249997</v>
       </c>
       <c r="B112" s="1">
-        <v>101.38</v>
+        <v>218.71369899999999</v>
       </c>
       <c r="C112" s="1">
-        <v>138.94999999999999</v>
+        <v>218.71369899999999</v>
       </c>
       <c r="D112" s="1">
         <v>88.52</v>
@@ -2604,18 +2605,18 @@
         <v>88.52</v>
       </c>
       <c r="F112" s="1">
-        <v>132.78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.608367999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43439.666672974534</v>
       </c>
       <c r="B113" s="1">
-        <v>110.3</v>
+        <v>285.50891100000001</v>
       </c>
       <c r="C113" s="1">
-        <v>102.53</v>
+        <v>285.50891100000001</v>
       </c>
       <c r="D113" s="1">
         <v>93.34</v>
@@ -2624,18 +2625,18 @@
         <v>93.34</v>
       </c>
       <c r="F113" s="1">
-        <v>92.48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.596740999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43439.708339699071</v>
       </c>
       <c r="B114" s="1">
-        <v>114.18</v>
+        <v>296.38479599999999</v>
       </c>
       <c r="C114" s="1">
-        <v>111.45</v>
+        <v>296.38479599999999</v>
       </c>
       <c r="D114" s="1">
         <v>90.47</v>
@@ -2644,18 +2645,18 @@
         <v>90.47</v>
       </c>
       <c r="F114" s="1">
-        <v>97.41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76.116753000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43439.750006423608</v>
       </c>
       <c r="B115" s="1">
-        <v>112.43</v>
+        <v>280.95532200000002</v>
       </c>
       <c r="C115" s="1">
-        <v>100.77</v>
+        <v>280.95532200000002</v>
       </c>
       <c r="D115" s="1">
         <v>87.09</v>
@@ -2664,18 +2665,18 @@
         <v>87.09</v>
       </c>
       <c r="F115" s="1">
-        <v>77.739999999999995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.181122000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43439.791673148145</v>
       </c>
       <c r="B116" s="1">
-        <v>120.25</v>
+        <v>162.09428399999999</v>
       </c>
       <c r="C116" s="1">
-        <v>107.27</v>
+        <v>162.09428399999999</v>
       </c>
       <c r="D116" s="1">
         <v>63.48</v>
@@ -2684,18 +2685,18 @@
         <v>63.48</v>
       </c>
       <c r="F116" s="1">
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110.081497</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43439.833339872683</v>
       </c>
       <c r="B117" s="1">
-        <v>115</v>
+        <v>122.055984</v>
       </c>
       <c r="C117" s="1">
-        <v>94.18</v>
+        <v>122.055984</v>
       </c>
       <c r="D117" s="1">
         <v>79</v>
@@ -2704,18 +2705,18 @@
         <v>79</v>
       </c>
       <c r="F117" s="1">
-        <v>80.09</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.650954999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43439.87500659722</v>
       </c>
       <c r="B118" s="1">
-        <v>98.65</v>
+        <v>98.522216999999998</v>
       </c>
       <c r="C118" s="1">
-        <v>76.39</v>
+        <v>98.522216999999998</v>
       </c>
       <c r="D118" s="1">
         <v>61.72</v>
@@ -2724,18 +2725,18 @@
         <v>61.72</v>
       </c>
       <c r="F118" s="1">
-        <v>66.489999999999995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.322319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43439.916673321757</v>
       </c>
       <c r="B119" s="1">
-        <v>68.25</v>
+        <v>95.328529000000003</v>
       </c>
       <c r="C119" s="1">
-        <v>71.83</v>
+        <v>95.328529000000003</v>
       </c>
       <c r="D119" s="1">
         <v>66.319999999999993</v>
@@ -2744,18 +2745,18 @@
         <v>66.319999999999993</v>
       </c>
       <c r="F119" s="1">
-        <v>65.349999999999994</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.780113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43439.958340046294</v>
       </c>
       <c r="B120" s="1">
-        <v>63.91</v>
+        <v>90.444534000000004</v>
       </c>
       <c r="C120" s="1">
-        <v>68.88</v>
+        <v>90.444534000000004</v>
       </c>
       <c r="D120" s="1">
         <v>65.349999999999994</v>
@@ -2764,18 +2765,18 @@
         <v>65.349999999999994</v>
       </c>
       <c r="F120" s="1">
-        <v>63.42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72.925567999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43440.000006770832</v>
       </c>
       <c r="B121" s="1">
-        <v>76.03</v>
+        <v>103.87181099999999</v>
       </c>
       <c r="C121" s="1">
-        <v>85.5</v>
+        <v>103.87181099999999</v>
       </c>
       <c r="D121" s="1">
         <v>73.73</v>
@@ -2784,18 +2785,18 @@
         <v>73.73</v>
       </c>
       <c r="F121" s="1">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.895629999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43440.041673495369</v>
       </c>
       <c r="B122" s="1">
-        <v>69.53</v>
+        <v>84.970725999999999</v>
       </c>
       <c r="C122" s="1">
-        <v>62.4</v>
+        <v>84.970725999999999</v>
       </c>
       <c r="D122" s="1">
         <v>64.819999999999993</v>
@@ -2804,18 +2805,18 @@
         <v>64.819999999999993</v>
       </c>
       <c r="F122" s="1">
-        <v>54.16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45.187964999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43440.083340219906</v>
       </c>
       <c r="B123" s="1">
-        <v>60.33</v>
+        <v>72.129456000000005</v>
       </c>
       <c r="C123" s="1">
-        <v>58.96</v>
+        <v>72.129456000000005</v>
       </c>
       <c r="D123" s="1">
         <v>59.95</v>
@@ -2824,18 +2825,18 @@
         <v>59.95</v>
       </c>
       <c r="F123" s="1">
-        <v>54.92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.284022999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43440.125006944443</v>
       </c>
       <c r="B124" s="1">
-        <v>55.97</v>
+        <v>74.315948000000006</v>
       </c>
       <c r="C124" s="1">
-        <v>52.17</v>
+        <v>74.315948000000006</v>
       </c>
       <c r="D124" s="1">
         <v>53.53</v>
@@ -2844,18 +2845,18 @@
         <v>53.53</v>
       </c>
       <c r="F124" s="1">
-        <v>50.35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.511859999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43440.16667366898</v>
       </c>
       <c r="B125" s="1">
-        <v>44.56</v>
+        <v>64.633895999999993</v>
       </c>
       <c r="C125" s="1">
-        <v>51.97</v>
+        <v>64.633895999999993</v>
       </c>
       <c r="D125" s="1">
         <v>45.95</v>
@@ -2864,18 +2865,18 @@
         <v>45.95</v>
       </c>
       <c r="F125" s="1">
-        <v>51.61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.627777000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43440.208340393518</v>
       </c>
       <c r="B126" s="1">
-        <v>53.25</v>
+        <v>75.125693999999996</v>
       </c>
       <c r="C126" s="1">
-        <v>56.71</v>
+        <v>75.125693999999996</v>
       </c>
       <c r="D126" s="1">
         <v>58.82</v>
@@ -2884,18 +2885,18 @@
         <v>58.82</v>
       </c>
       <c r="F126" s="1">
-        <v>56.43</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.781711999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43440.250007118055</v>
       </c>
       <c r="B127" s="1">
-        <v>56.57</v>
+        <v>79.241501</v>
       </c>
       <c r="C127" s="1">
-        <v>64.819999999999993</v>
+        <v>79.241501</v>
       </c>
       <c r="D127" s="1">
         <v>59.34</v>
@@ -2904,18 +2905,18 @@
         <v>59.34</v>
       </c>
       <c r="F127" s="1">
-        <v>59.62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.167563999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43440.291673842592</v>
       </c>
       <c r="B128" s="1">
-        <v>62.01</v>
+        <v>112.784363</v>
       </c>
       <c r="C128" s="1">
-        <v>64.290000000000006</v>
+        <v>112.784363</v>
       </c>
       <c r="D128" s="1">
         <v>60.49</v>
@@ -2924,18 +2925,18 @@
         <v>60.49</v>
       </c>
       <c r="F128" s="1">
-        <v>59.17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.327590999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43440.333340567129</v>
       </c>
       <c r="B129" s="1">
-        <v>63.23</v>
+        <v>108.48260500000001</v>
       </c>
       <c r="C129" s="1">
-        <v>81.5</v>
+        <v>108.48260500000001</v>
       </c>
       <c r="D129" s="1">
         <v>58.56</v>
@@ -2944,18 +2945,18 @@
         <v>58.56</v>
       </c>
       <c r="F129" s="1">
-        <v>72.17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.748299000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43440.375007291666</v>
       </c>
       <c r="B130" s="1">
-        <v>89.66</v>
+        <v>109.598122</v>
       </c>
       <c r="C130" s="1">
-        <v>89.39</v>
+        <v>109.598122</v>
       </c>
       <c r="D130" s="1">
         <v>79.709999999999994</v>
@@ -2964,18 +2965,18 @@
         <v>79.709999999999994</v>
       </c>
       <c r="F130" s="1">
-        <v>77.48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.896797000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43440.416674016204</v>
       </c>
       <c r="B131" s="1">
-        <v>89.33</v>
+        <v>105.92450700000001</v>
       </c>
       <c r="C131" s="1">
-        <v>81.27</v>
+        <v>105.92450700000001</v>
       </c>
       <c r="D131" s="1">
         <v>76.77</v>
@@ -2984,18 +2985,18 @@
         <v>76.77</v>
       </c>
       <c r="F131" s="1">
-        <v>67.08</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.882889000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43440.458340740741</v>
       </c>
       <c r="B132" s="1">
-        <v>86.08</v>
+        <v>105.009102</v>
       </c>
       <c r="C132" s="1">
-        <v>98.98</v>
+        <v>105.009102</v>
       </c>
       <c r="D132" s="1">
         <v>73.61</v>
@@ -3004,18 +3005,18 @@
         <v>73.61</v>
       </c>
       <c r="F132" s="1">
-        <v>60.81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75.332222000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43440.500007465278</v>
       </c>
       <c r="B133" s="1">
-        <v>117.98</v>
+        <v>122.593918</v>
       </c>
       <c r="C133" s="1">
-        <v>95.26</v>
+        <v>122.593918</v>
       </c>
       <c r="D133" s="1">
         <v>62.42</v>
@@ -3024,18 +3025,18 @@
         <v>62.42</v>
       </c>
       <c r="F133" s="1">
-        <v>57.15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.503448000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43440.541674189815</v>
       </c>
       <c r="B134" s="1">
-        <v>103.63</v>
+        <v>128.81958</v>
       </c>
       <c r="C134" s="1">
-        <v>99.08</v>
+        <v>128.81958</v>
       </c>
       <c r="D134" s="1">
         <v>64.86</v>
@@ -3044,18 +3045,18 @@
         <v>64.86</v>
       </c>
       <c r="F134" s="1">
-        <v>65.73</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87.253219999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43440.583340914352</v>
       </c>
       <c r="B135" s="1">
-        <v>127.97</v>
+        <v>169.14898700000001</v>
       </c>
       <c r="C135" s="1">
-        <v>118.02</v>
+        <v>169.14898700000001</v>
       </c>
       <c r="D135" s="1">
         <v>72.959999999999994</v>
@@ -3064,18 +3065,18 @@
         <v>72.959999999999994</v>
       </c>
       <c r="F135" s="1">
-        <v>58.89</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94.700958</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43440.62500763889</v>
       </c>
       <c r="B136" s="1">
-        <v>122.76</v>
+        <v>187.788589</v>
       </c>
       <c r="C136" s="1">
-        <v>311.86</v>
+        <v>187.788589</v>
       </c>
       <c r="D136" s="1">
         <v>59.03</v>
@@ -3084,18 +3085,18 @@
         <v>59.03</v>
       </c>
       <c r="F136" s="1">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.238692999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43440.666674363427</v>
       </c>
       <c r="B137" s="1">
-        <v>292.64999999999998</v>
+        <v>153.25392199999999</v>
       </c>
       <c r="C137" s="1">
-        <v>111.83</v>
+        <v>153.25392199999999</v>
       </c>
       <c r="D137" s="1">
         <v>68.400000000000006</v>
@@ -3104,18 +3105,18 @@
         <v>68.400000000000006</v>
       </c>
       <c r="F137" s="1">
-        <v>78.430000000000007</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.135131999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43440.708341087964</v>
       </c>
       <c r="B138" s="1">
-        <v>126.07</v>
+        <v>210.38520800000001</v>
       </c>
       <c r="C138" s="1">
-        <v>110.5</v>
+        <v>210.38520800000001</v>
       </c>
       <c r="D138" s="1">
         <v>80.94</v>
@@ -3124,18 +3125,18 @@
         <v>80.94</v>
       </c>
       <c r="F138" s="1">
-        <v>93.64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.665321000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43440.750007812501</v>
       </c>
       <c r="B139" s="1">
-        <v>136.66999999999999</v>
+        <v>103.93158</v>
       </c>
       <c r="C139" s="1">
-        <v>107.48</v>
+        <v>103.93158</v>
       </c>
       <c r="D139" s="1">
         <v>109.15</v>
@@ -3144,18 +3145,18 @@
         <v>109.15</v>
       </c>
       <c r="F139" s="1">
-        <v>86.34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75.235557999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43440.791674537038</v>
       </c>
       <c r="B140" s="1">
-        <v>305.82</v>
+        <v>104.585228</v>
       </c>
       <c r="C140" s="1">
-        <v>359.37</v>
+        <v>104.585228</v>
       </c>
       <c r="D140" s="1">
         <v>73.290000000000006</v>
@@ -3164,18 +3165,18 @@
         <v>73.290000000000006</v>
       </c>
       <c r="F140" s="1">
-        <v>85.72</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76.249083999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43440.833341261576</v>
       </c>
       <c r="B141" s="1">
-        <v>423.86</v>
+        <v>105.999611</v>
       </c>
       <c r="C141" s="1">
-        <v>110.55</v>
+        <v>105.999611</v>
       </c>
       <c r="D141" s="1">
         <v>76.89</v>
@@ -3184,18 +3185,18 @@
         <v>76.89</v>
       </c>
       <c r="F141" s="1">
-        <v>76.12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78.255156999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43440.875007986113</v>
       </c>
       <c r="B142" s="1">
-        <v>96.54</v>
+        <v>83.930817000000005</v>
       </c>
       <c r="C142" s="1">
-        <v>114.01</v>
+        <v>83.930817000000005</v>
       </c>
       <c r="D142" s="1">
         <v>62.29</v>
@@ -3204,18 +3205,18 @@
         <v>62.29</v>
       </c>
       <c r="F142" s="1">
-        <v>61.78</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.327927000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43440.91667471065</v>
       </c>
       <c r="B143" s="1">
-        <v>124.12</v>
+        <v>76.515770000000003</v>
       </c>
       <c r="C143" s="1">
-        <v>105.98</v>
+        <v>76.515770000000003</v>
       </c>
       <c r="D143" s="1">
         <v>67.36</v>
@@ -3224,18 +3225,18 @@
         <v>67.36</v>
       </c>
       <c r="F143" s="1">
-        <v>61.55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.633735999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43440.958341435187</v>
       </c>
       <c r="B144" s="1">
-        <v>106.85</v>
+        <v>85.141548</v>
       </c>
       <c r="C144" s="1">
-        <v>101.6</v>
+        <v>85.141548</v>
       </c>
       <c r="D144" s="1">
         <v>69.25</v>
@@ -3244,18 +3245,18 @@
         <v>69.25</v>
       </c>
       <c r="F144" s="1">
-        <v>63.49</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74.710526000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43441.000008159725</v>
       </c>
       <c r="B145" s="1">
-        <v>112.67</v>
+        <v>94.792900000000003</v>
       </c>
       <c r="C145" s="1">
-        <v>135.96</v>
+        <v>94.792900000000003</v>
       </c>
       <c r="D145" s="1">
         <v>61.46</v>
@@ -3264,18 +3265,18 @@
         <v>61.46</v>
       </c>
       <c r="F145" s="1">
-        <v>58.07</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.929752000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43441.041674884262</v>
       </c>
       <c r="B146" s="1">
-        <v>83.8</v>
+        <v>71.201110999999997</v>
       </c>
       <c r="C146" s="1">
-        <v>63.49</v>
+        <v>71.201110999999997</v>
       </c>
       <c r="D146" s="1">
         <v>57.27</v>
@@ -3284,18 +3285,18 @@
         <v>57.27</v>
       </c>
       <c r="F146" s="1">
-        <v>52.05</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.202637000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43441.083341608799</v>
       </c>
       <c r="B147" s="1">
-        <v>59.35</v>
+        <v>73.179558</v>
       </c>
       <c r="C147" s="1">
-        <v>58.07</v>
+        <v>73.179558</v>
       </c>
       <c r="D147" s="1">
         <v>58.09</v>
@@ -3304,18 +3305,18 @@
         <v>58.09</v>
       </c>
       <c r="F147" s="1">
-        <v>53.69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.629829000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43441.125008333336</v>
       </c>
       <c r="B148" s="1">
-        <v>46.52</v>
+        <v>67.483711</v>
       </c>
       <c r="C148" s="1">
-        <v>51.76</v>
+        <v>67.483711</v>
       </c>
       <c r="D148" s="1">
         <v>51.38</v>
@@ -3324,18 +3325,18 @@
         <v>51.38</v>
       </c>
       <c r="F148" s="1">
-        <v>50.57</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40.744926</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43441.166675057873</v>
       </c>
       <c r="B149" s="1">
-        <v>40.880000000000003</v>
+        <v>64.943222000000006</v>
       </c>
       <c r="C149" s="1">
-        <v>55.82</v>
+        <v>64.943222000000006</v>
       </c>
       <c r="D149" s="1">
         <v>49.36</v>
@@ -3344,18 +3345,18 @@
         <v>49.36</v>
       </c>
       <c r="F149" s="1">
-        <v>56.83</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44.580967000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43441.208341782411</v>
       </c>
       <c r="B150" s="1">
-        <v>46.74</v>
+        <v>77.965401</v>
       </c>
       <c r="C150" s="1">
-        <v>55.39</v>
+        <v>77.965401</v>
       </c>
       <c r="D150" s="1">
         <v>55.79</v>
@@ -3364,18 +3365,18 @@
         <v>55.79</v>
       </c>
       <c r="F150" s="1">
-        <v>56.54</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.681927000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43441.250008506948</v>
       </c>
       <c r="B151" s="1">
-        <v>55.42</v>
+        <v>95.043289000000001</v>
       </c>
       <c r="C151" s="1">
-        <v>67.45</v>
+        <v>95.043289000000001</v>
       </c>
       <c r="D151" s="1">
         <v>60.24</v>
@@ -3384,18 +3385,18 @@
         <v>60.24</v>
       </c>
       <c r="F151" s="1">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.587189000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43441.291675231485</v>
       </c>
       <c r="B152" s="1">
-        <v>79.06</v>
+        <v>90.639160000000004</v>
       </c>
       <c r="C152" s="1">
-        <v>115.33</v>
+        <v>90.639160000000004</v>
       </c>
       <c r="D152" s="1">
         <v>73.81</v>
@@ -3404,18 +3405,18 @@
         <v>73.81</v>
       </c>
       <c r="F152" s="1">
-        <v>83.78</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56.941699999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43441.333341956015</v>
       </c>
       <c r="B153" s="1">
-        <v>92.59</v>
+        <v>102.23859400000001</v>
       </c>
       <c r="C153" s="1">
-        <v>119.95</v>
+        <v>102.23859400000001</v>
       </c>
       <c r="D153" s="1">
         <v>86.51</v>
@@ -3424,18 +3425,18 @@
         <v>86.51</v>
       </c>
       <c r="F153" s="1">
-        <v>70.22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.257961000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43441.375008680552</v>
       </c>
       <c r="B154" s="1">
-        <v>141.13999999999999</v>
+        <v>130.829025</v>
       </c>
       <c r="C154" s="1">
-        <v>113.06</v>
+        <v>130.829025</v>
       </c>
       <c r="D154" s="1">
         <v>78</v>
@@ -3444,18 +3445,18 @@
         <v>78</v>
       </c>
       <c r="F154" s="1">
-        <v>88.41</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.986674999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43441.416675405089</v>
       </c>
       <c r="B155" s="1">
-        <v>125.87</v>
+        <v>119.796936</v>
       </c>
       <c r="C155" s="1">
-        <v>114.96</v>
+        <v>119.796936</v>
       </c>
       <c r="D155" s="1">
         <v>80</v>
@@ -3464,18 +3465,18 @@
         <v>80</v>
       </c>
       <c r="F155" s="1">
-        <v>75.459999999999994</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60.459549000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43441.458342129627</v>
       </c>
       <c r="B156" s="1">
-        <v>98.34</v>
+        <v>148.54037500000001</v>
       </c>
       <c r="C156" s="1">
-        <v>120.06</v>
+        <v>148.54037500000001</v>
       </c>
       <c r="D156" s="1">
         <v>87.29</v>
@@ -3484,18 +3485,18 @@
         <v>87.29</v>
       </c>
       <c r="F156" s="1">
-        <v>69.55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.387908999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43441.500008854164</v>
       </c>
       <c r="B157" s="1">
-        <v>108.38</v>
+        <v>127.617386</v>
       </c>
       <c r="C157" s="1">
-        <v>116.13</v>
+        <v>127.617386</v>
       </c>
       <c r="D157" s="1">
         <v>76.989999999999995</v>
@@ -3504,18 +3505,18 @@
         <v>76.989999999999995</v>
       </c>
       <c r="F157" s="1">
-        <v>78.55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.886725999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43441.541675578701</v>
       </c>
       <c r="B158" s="1">
-        <v>108.38</v>
+        <v>121.186638</v>
       </c>
       <c r="C158" s="1">
-        <v>123.19</v>
+        <v>121.186638</v>
       </c>
       <c r="D158" s="1">
         <v>80.61</v>
@@ -3524,18 +3525,18 @@
         <v>80.61</v>
       </c>
       <c r="F158" s="1">
-        <v>79.73</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.227928000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43441.583342303238</v>
       </c>
       <c r="B159" s="1">
-        <v>129.18</v>
+        <v>101.71901699999999</v>
       </c>
       <c r="C159" s="1">
-        <v>178.85</v>
+        <v>101.71901699999999</v>
       </c>
       <c r="D159" s="1">
         <v>118.39</v>
@@ -3544,18 +3545,18 @@
         <v>118.39</v>
       </c>
       <c r="F159" s="1">
-        <v>140.31</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76.244843000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43441.625009027775</v>
       </c>
       <c r="B160" s="1">
-        <v>210.59</v>
+        <v>102.324234</v>
       </c>
       <c r="C160" s="1">
-        <v>69.41</v>
+        <v>102.324234</v>
       </c>
       <c r="D160" s="1">
         <v>198.27</v>
@@ -3564,18 +3565,18 @@
         <v>198.27</v>
       </c>
       <c r="F160" s="1">
-        <v>55.15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72.306556999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43441.666675752313</v>
       </c>
       <c r="B161" s="1">
-        <v>2068.88</v>
+        <v>99.186629999999994</v>
       </c>
       <c r="C161" s="1">
-        <v>79.58</v>
+        <v>99.186629999999994</v>
       </c>
       <c r="D161" s="1">
         <v>67.28</v>
@@ -3584,18 +3585,18 @@
         <v>67.28</v>
       </c>
       <c r="F161" s="1">
-        <v>66.41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74.321877000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43441.70834247685</v>
       </c>
       <c r="B162" s="1">
-        <v>171.31</v>
+        <v>102.412567</v>
       </c>
       <c r="C162" s="1">
-        <v>84.66</v>
+        <v>102.412567</v>
       </c>
       <c r="D162" s="1">
         <v>140.44</v>
@@ -3604,18 +3605,18 @@
         <v>140.44</v>
       </c>
       <c r="F162" s="1">
-        <v>65.349999999999994</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79.545929000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43441.750009201387</v>
       </c>
       <c r="B163" s="1">
-        <v>104.86</v>
+        <v>108.319481</v>
       </c>
       <c r="C163" s="1">
-        <v>144.84</v>
+        <v>108.319481</v>
       </c>
       <c r="D163" s="1">
         <v>98.86</v>
@@ -3624,18 +3625,18 @@
         <v>98.86</v>
       </c>
       <c r="F163" s="1">
-        <v>116.82</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82.290428000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43441.791675925924</v>
       </c>
       <c r="B164" s="1">
-        <v>168.99</v>
+        <v>107.298737</v>
       </c>
       <c r="C164" s="1">
-        <v>248.64</v>
+        <v>107.298737</v>
       </c>
       <c r="D164" s="1">
         <v>115.83</v>
@@ -3644,18 +3645,18 @@
         <v>115.83</v>
       </c>
       <c r="F164" s="1">
-        <v>75.14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91.846114999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43441.833342650461</v>
       </c>
       <c r="B165" s="1">
-        <v>128.01</v>
+        <v>93.257782000000006</v>
       </c>
       <c r="C165" s="1">
-        <v>101.84</v>
+        <v>93.257782000000006</v>
       </c>
       <c r="D165" s="1">
         <v>86.46</v>
@@ -3664,18 +3665,18 @@
         <v>86.46</v>
       </c>
       <c r="F165" s="1">
-        <v>70.260000000000005</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81.172873999999993</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43441.875009374999</v>
       </c>
       <c r="B166" s="1">
-        <v>89.32</v>
+        <v>87.188332000000003</v>
       </c>
       <c r="C166" s="1">
-        <v>264.12</v>
+        <v>87.188332000000003</v>
       </c>
       <c r="D166" s="1">
         <v>62.47</v>
@@ -3684,18 +3685,18 @@
         <v>62.47</v>
       </c>
       <c r="F166" s="1">
-        <v>60.22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69.495948999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43441.916676099536</v>
       </c>
       <c r="B167" s="1">
-        <v>111.91</v>
+        <v>80.740784000000005</v>
       </c>
       <c r="C167" s="1">
-        <v>99.46</v>
+        <v>80.740784000000005</v>
       </c>
       <c r="D167" s="1">
         <v>64.150000000000006</v>
@@ -3704,18 +3705,18 @@
         <v>64.150000000000006</v>
       </c>
       <c r="F167" s="1">
-        <v>57.25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.174744000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>43441.958342824073</v>
       </c>
       <c r="B168" s="1">
-        <v>135.27000000000001</v>
+        <v>84.867523000000006</v>
       </c>
       <c r="C168" s="1">
-        <v>152.66</v>
+        <v>84.867523000000006</v>
       </c>
       <c r="D168" s="1">
         <v>85.91</v>
@@ -3724,18 +3725,18 @@
         <v>85.91</v>
       </c>
       <c r="F168" s="1">
-        <v>73.08</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73.264167999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43442.00000954861</v>
       </c>
       <c r="B169" s="1">
-        <v>123.58</v>
+        <v>126.777885</v>
       </c>
       <c r="C169" s="1">
-        <v>205.68</v>
+        <v>126.777885</v>
       </c>
       <c r="D169" s="1">
         <v>71.319999999999993</v>
@@ -3744,1447 +3745,7 @@
         <v>71.319999999999993</v>
       </c>
       <c r="F169" s="1">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>43442.041676273147</v>
-      </c>
-      <c r="B170" s="1">
-        <v>121.02</v>
-      </c>
-      <c r="C170" s="1">
-        <v>122.25</v>
-      </c>
-      <c r="D170" s="1">
-        <v>63.79</v>
-      </c>
-      <c r="E170" s="1">
-        <v>63.79</v>
-      </c>
-      <c r="F170" s="1">
-        <v>59.19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>43442.083342997685</v>
-      </c>
-      <c r="B171" s="1">
-        <v>91.06</v>
-      </c>
-      <c r="C171" s="1">
-        <v>101.15</v>
-      </c>
-      <c r="D171" s="1">
-        <v>56.6</v>
-      </c>
-      <c r="E171" s="1">
-        <v>56.6</v>
-      </c>
-      <c r="F171" s="1">
-        <v>53.22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>43442.125009722222</v>
-      </c>
-      <c r="B172" s="1">
-        <v>74.489999999999995</v>
-      </c>
-      <c r="C172" s="1">
-        <v>64.069999999999993</v>
-      </c>
-      <c r="D172" s="1">
-        <v>55.12</v>
-      </c>
-      <c r="E172" s="1">
-        <v>55.12</v>
-      </c>
-      <c r="F172" s="1">
-        <v>55.72</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43442.166676446759</v>
-      </c>
-      <c r="B173" s="1">
-        <v>64.69</v>
-      </c>
-      <c r="C173" s="1">
-        <v>67.92</v>
-      </c>
-      <c r="D173" s="1">
-        <v>58.36</v>
-      </c>
-      <c r="E173" s="1">
-        <v>58.36</v>
-      </c>
-      <c r="F173" s="1">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>43442.208343171296</v>
-      </c>
-      <c r="B174" s="1">
-        <v>72.73</v>
-      </c>
-      <c r="C174" s="1">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="D174" s="1">
-        <v>60.45</v>
-      </c>
-      <c r="E174" s="1">
-        <v>60.45</v>
-      </c>
-      <c r="F174" s="1">
-        <v>56.59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>43442.250009895834</v>
-      </c>
-      <c r="B175" s="1">
-        <v>87.37</v>
-      </c>
-      <c r="C175" s="1">
-        <v>88.18</v>
-      </c>
-      <c r="D175" s="1">
-        <v>58.45</v>
-      </c>
-      <c r="E175" s="1">
-        <v>58.45</v>
-      </c>
-      <c r="F175" s="1">
-        <v>50.21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>43442.291676620371</v>
-      </c>
-      <c r="B176" s="1">
-        <v>90.91</v>
-      </c>
-      <c r="C176" s="1">
-        <v>109.54</v>
-      </c>
-      <c r="D176" s="1">
-        <v>58.63</v>
-      </c>
-      <c r="E176" s="1">
-        <v>58.63</v>
-      </c>
-      <c r="F176" s="1">
-        <v>57.35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>43442.333343344908</v>
-      </c>
-      <c r="B177" s="1">
-        <v>120.77</v>
-      </c>
-      <c r="C177" s="1">
-        <v>133.78</v>
-      </c>
-      <c r="D177" s="1">
-        <v>62.42</v>
-      </c>
-      <c r="E177" s="1">
-        <v>62.42</v>
-      </c>
-      <c r="F177" s="1">
-        <v>63.38</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>43442.375010069445</v>
-      </c>
-      <c r="B178" s="1">
-        <v>108.47</v>
-      </c>
-      <c r="C178" s="1">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="D178" s="1">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="E178" s="1">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="F178" s="1">
-        <v>62.66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>43442.416676793982</v>
-      </c>
-      <c r="B179" s="1">
-        <v>115.27</v>
-      </c>
-      <c r="C179" s="1">
-        <v>126.27</v>
-      </c>
-      <c r="D179" s="1">
-        <v>64.8</v>
-      </c>
-      <c r="E179" s="1">
-        <v>64.8</v>
-      </c>
-      <c r="F179" s="1">
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>43442.45834351852</v>
-      </c>
-      <c r="B180" s="1">
-        <v>118.77</v>
-      </c>
-      <c r="C180" s="1">
-        <v>142.82</v>
-      </c>
-      <c r="D180" s="1">
-        <v>67.180000000000007</v>
-      </c>
-      <c r="E180" s="1">
-        <v>67.180000000000007</v>
-      </c>
-      <c r="F180" s="1">
-        <v>63.41</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>43442.500010243057</v>
-      </c>
-      <c r="B181" s="1">
-        <v>165.14</v>
-      </c>
-      <c r="C181" s="1">
-        <v>269.27999999999997</v>
-      </c>
-      <c r="D181" s="1">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="E181" s="1">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="F181" s="1">
-        <v>64.84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>43442.541676967594</v>
-      </c>
-      <c r="B182" s="1">
-        <v>247.99</v>
-      </c>
-      <c r="C182" s="1">
-        <v>125.69</v>
-      </c>
-      <c r="D182" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="E182" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="F182" s="1">
-        <v>77.66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>43442.583343692131</v>
-      </c>
-      <c r="B183" s="1">
-        <v>103.96</v>
-      </c>
-      <c r="C183" s="1">
-        <v>128.75</v>
-      </c>
-      <c r="D183" s="1">
-        <v>90.18</v>
-      </c>
-      <c r="E183" s="1">
-        <v>90.18</v>
-      </c>
-      <c r="F183" s="1">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>43442.625010416668</v>
-      </c>
-      <c r="B184" s="1">
-        <v>111.99</v>
-      </c>
-      <c r="C184" s="1">
-        <v>144.16</v>
-      </c>
-      <c r="D184" s="1">
-        <v>81.58</v>
-      </c>
-      <c r="E184" s="1">
-        <v>81.58</v>
-      </c>
-      <c r="F184" s="1">
-        <v>82.34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>43442.666677141206</v>
-      </c>
-      <c r="B185" s="1">
-        <v>86.02</v>
-      </c>
-      <c r="C185" s="1">
-        <v>88.7</v>
-      </c>
-      <c r="D185" s="1">
-        <v>88.09</v>
-      </c>
-      <c r="E185" s="1">
-        <v>88.09</v>
-      </c>
-      <c r="F185" s="1">
-        <v>75.16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>43442.708343865743</v>
-      </c>
-      <c r="B186" s="1">
-        <v>84.24</v>
-      </c>
-      <c r="C186" s="1">
-        <v>92.14</v>
-      </c>
-      <c r="D186" s="1">
-        <v>84.65</v>
-      </c>
-      <c r="E186" s="1">
-        <v>84.65</v>
-      </c>
-      <c r="F186" s="1">
-        <v>79.010000000000005</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>43442.75001059028</v>
-      </c>
-      <c r="B187" s="1">
-        <v>87.97</v>
-      </c>
-      <c r="C187" s="1">
-        <v>102.01</v>
-      </c>
-      <c r="D187" s="1">
-        <v>85.62</v>
-      </c>
-      <c r="E187" s="1">
-        <v>85.62</v>
-      </c>
-      <c r="F187" s="1">
-        <v>84.02</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>43442.791677314817</v>
-      </c>
-      <c r="B188" s="1">
-        <v>96.81</v>
-      </c>
-      <c r="C188" s="1">
-        <v>89.8</v>
-      </c>
-      <c r="D188" s="1">
-        <v>87.93</v>
-      </c>
-      <c r="E188" s="1">
-        <v>87.93</v>
-      </c>
-      <c r="F188" s="1">
-        <v>83.74</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>43442.833344039354</v>
-      </c>
-      <c r="B189" s="1">
-        <v>81.88</v>
-      </c>
-      <c r="C189" s="1">
-        <v>87.23</v>
-      </c>
-      <c r="D189" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="E189" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="F189" s="1">
-        <v>82.15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>43442.875010763892</v>
-      </c>
-      <c r="B190" s="1">
-        <v>81.87</v>
-      </c>
-      <c r="C190" s="1">
-        <v>79.48</v>
-      </c>
-      <c r="D190" s="1">
-        <v>77.58</v>
-      </c>
-      <c r="E190" s="1">
-        <v>77.58</v>
-      </c>
-      <c r="F190" s="1">
-        <v>72.06</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>43442.916677488429</v>
-      </c>
-      <c r="B191" s="1">
-        <v>76.97</v>
-      </c>
-      <c r="C191" s="1">
-        <v>68.27</v>
-      </c>
-      <c r="D191" s="1">
-        <v>73.33</v>
-      </c>
-      <c r="E191" s="1">
-        <v>73.33</v>
-      </c>
-      <c r="F191" s="1">
-        <v>62.87</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>43442.958344212966</v>
-      </c>
-      <c r="B192" s="1">
-        <v>56.08</v>
-      </c>
-      <c r="C192" s="1">
-        <v>64.64</v>
-      </c>
-      <c r="D192" s="1">
-        <v>61.87</v>
-      </c>
-      <c r="E192" s="1">
-        <v>61.87</v>
-      </c>
-      <c r="F192" s="1">
-        <v>62.37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>43443.000010937503</v>
-      </c>
-      <c r="B193" s="1">
-        <v>63.69</v>
-      </c>
-      <c r="C193" s="1">
-        <v>74.06</v>
-      </c>
-      <c r="D193" s="1">
-        <v>60.03</v>
-      </c>
-      <c r="E193" s="1">
-        <v>60.03</v>
-      </c>
-      <c r="F193" s="1">
-        <v>58.56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>43443.04167766204</v>
-      </c>
-      <c r="B194" s="1">
-        <v>70.86</v>
-      </c>
-      <c r="C194" s="1">
-        <v>67.28</v>
-      </c>
-      <c r="D194" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="E194" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="F194" s="1">
-        <v>61.07</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>43443.083344386578</v>
-      </c>
-      <c r="B195" s="1">
-        <v>68.62</v>
-      </c>
-      <c r="C195" s="1">
-        <v>57.07</v>
-      </c>
-      <c r="D195" s="1">
-        <v>63.39</v>
-      </c>
-      <c r="E195" s="1">
-        <v>63.39</v>
-      </c>
-      <c r="F195" s="1">
-        <v>55.32</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>43443.125011111108</v>
-      </c>
-      <c r="B196" s="1">
-        <v>57.28</v>
-      </c>
-      <c r="C196" s="1">
-        <v>58.11</v>
-      </c>
-      <c r="D196" s="1">
-        <v>59.13</v>
-      </c>
-      <c r="E196" s="1">
-        <v>59.13</v>
-      </c>
-      <c r="F196" s="1">
-        <v>56.95</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>43443.166677835645</v>
-      </c>
-      <c r="B197" s="1">
-        <v>55.73</v>
-      </c>
-      <c r="C197" s="1">
-        <v>57.48</v>
-      </c>
-      <c r="D197" s="1">
-        <v>59.64</v>
-      </c>
-      <c r="E197" s="1">
-        <v>59.64</v>
-      </c>
-      <c r="F197" s="1">
-        <v>56.91</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>43443.208344560182</v>
-      </c>
-      <c r="B198" s="1">
-        <v>52.36</v>
-      </c>
-      <c r="C198" s="1">
-        <v>63.49</v>
-      </c>
-      <c r="D198" s="1">
-        <v>56.13</v>
-      </c>
-      <c r="E198" s="1">
-        <v>56.13</v>
-      </c>
-      <c r="F198" s="1">
-        <v>60.66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>43443.250011284719</v>
-      </c>
-      <c r="B199" s="1">
-        <v>50.48</v>
-      </c>
-      <c r="C199" s="1">
-        <v>52.25</v>
-      </c>
-      <c r="D199" s="1">
-        <v>48.01</v>
-      </c>
-      <c r="E199" s="1">
-        <v>48.01</v>
-      </c>
-      <c r="F199" s="1">
-        <v>49.84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>43443.291678009256</v>
-      </c>
-      <c r="B200" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="C200" s="1">
-        <v>57.85</v>
-      </c>
-      <c r="D200" s="1">
-        <v>53.18</v>
-      </c>
-      <c r="E200" s="1">
-        <v>53.18</v>
-      </c>
-      <c r="F200" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>43443.333344733794</v>
-      </c>
-      <c r="B201" s="1">
-        <v>60.78</v>
-      </c>
-      <c r="C201" s="1">
-        <v>67.06</v>
-      </c>
-      <c r="D201" s="1">
-        <v>60.42</v>
-      </c>
-      <c r="E201" s="1">
-        <v>60.42</v>
-      </c>
-      <c r="F201" s="1">
-        <v>59.19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>43443.375011458331</v>
-      </c>
-      <c r="B202" s="1">
-        <v>77.430000000000007</v>
-      </c>
-      <c r="C202" s="1">
-        <v>75.63</v>
-      </c>
-      <c r="D202" s="1">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="E202" s="1">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="F202" s="1">
-        <v>64.63</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>43443.416678182868</v>
-      </c>
-      <c r="B203" s="1">
-        <v>62.82</v>
-      </c>
-      <c r="C203" s="1">
-        <v>62.72</v>
-      </c>
-      <c r="D203" s="1">
-        <v>59.25</v>
-      </c>
-      <c r="E203" s="1">
-        <v>59.25</v>
-      </c>
-      <c r="F203" s="1">
-        <v>54.79</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>43443.458344907405</v>
-      </c>
-      <c r="B204" s="1">
-        <v>66.489999999999995</v>
-      </c>
-      <c r="C204" s="1">
-        <v>67.75</v>
-      </c>
-      <c r="D204" s="1">
-        <v>60.35</v>
-      </c>
-      <c r="E204" s="1">
-        <v>60.35</v>
-      </c>
-      <c r="F204" s="1">
-        <v>56.66</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>43443.500011631942</v>
-      </c>
-      <c r="B205" s="1">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="C205" s="1">
-        <v>75.459999999999994</v>
-      </c>
-      <c r="D205" s="1">
-        <v>62.51</v>
-      </c>
-      <c r="E205" s="1">
-        <v>62.51</v>
-      </c>
-      <c r="F205" s="1">
-        <v>62.36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>43443.54167835648</v>
-      </c>
-      <c r="B206" s="1">
-        <v>71.680000000000007</v>
-      </c>
-      <c r="C206" s="1">
-        <v>80.59</v>
-      </c>
-      <c r="D206" s="1">
-        <v>62.21</v>
-      </c>
-      <c r="E206" s="1">
-        <v>62.21</v>
-      </c>
-      <c r="F206" s="1">
-        <v>65.209999999999994</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>43443.583345081017</v>
-      </c>
-      <c r="B207" s="1">
-        <v>79.94</v>
-      </c>
-      <c r="C207" s="1">
-        <v>77.040000000000006</v>
-      </c>
-      <c r="D207" s="1">
-        <v>72.569999999999993</v>
-      </c>
-      <c r="E207" s="1">
-        <v>72.569999999999993</v>
-      </c>
-      <c r="F207" s="1">
-        <v>66.33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>43443.625011805554</v>
-      </c>
-      <c r="B208" s="1">
-        <v>78.260000000000005</v>
-      </c>
-      <c r="C208" s="1">
-        <v>82.22</v>
-      </c>
-      <c r="D208" s="1">
-        <v>80.23</v>
-      </c>
-      <c r="E208" s="1">
-        <v>80.23</v>
-      </c>
-      <c r="F208" s="1">
-        <v>71.06</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>43443.666678530091</v>
-      </c>
-      <c r="B209" s="1">
-        <v>83.6</v>
-      </c>
-      <c r="C209" s="1">
-        <v>90.24</v>
-      </c>
-      <c r="D209" s="1">
-        <v>86.23</v>
-      </c>
-      <c r="E209" s="1">
-        <v>86.23</v>
-      </c>
-      <c r="F209" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>43443.708345254629</v>
-      </c>
-      <c r="B210" s="1">
-        <v>82.98</v>
-      </c>
-      <c r="C210" s="1">
-        <v>113.86</v>
-      </c>
-      <c r="D210" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="E210" s="1">
-        <v>87.06</v>
-      </c>
-      <c r="F210" s="1">
-        <v>98.81</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>43443.750011979166</v>
-      </c>
-      <c r="B211" s="1">
-        <v>108.7</v>
-      </c>
-      <c r="C211" s="1">
-        <v>105.07</v>
-      </c>
-      <c r="D211" s="1">
-        <v>113.08</v>
-      </c>
-      <c r="E211" s="1">
-        <v>113.08</v>
-      </c>
-      <c r="F211" s="1">
-        <v>96.45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>43443.791678703703</v>
-      </c>
-      <c r="B212" s="1">
-        <v>87.9</v>
-      </c>
-      <c r="C212" s="1">
-        <v>97.95</v>
-      </c>
-      <c r="D212" s="1">
-        <v>94.12</v>
-      </c>
-      <c r="E212" s="1">
-        <v>94.12</v>
-      </c>
-      <c r="F212" s="1">
-        <v>93.31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>43443.83334542824</v>
-      </c>
-      <c r="B213" s="1">
-        <v>95.17</v>
-      </c>
-      <c r="C213" s="1">
-        <v>99.69</v>
-      </c>
-      <c r="D213" s="1">
-        <v>94.97</v>
-      </c>
-      <c r="E213" s="1">
-        <v>94.97</v>
-      </c>
-      <c r="F213" s="1">
-        <v>89.03</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>43443.875012152777</v>
-      </c>
-      <c r="B214" s="1">
-        <v>103.48</v>
-      </c>
-      <c r="C214" s="1">
-        <v>101.7</v>
-      </c>
-      <c r="D214" s="1">
-        <v>81.33</v>
-      </c>
-      <c r="E214" s="1">
-        <v>81.33</v>
-      </c>
-      <c r="F214" s="1">
-        <v>78.47</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>43443.916678877315</v>
-      </c>
-      <c r="B215" s="1">
-        <v>109.16</v>
-      </c>
-      <c r="C215" s="1">
-        <v>97.49</v>
-      </c>
-      <c r="D215" s="1">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="E215" s="1">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="F215" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>43443.958345601852</v>
-      </c>
-      <c r="B216" s="1">
-        <v>84.01</v>
-      </c>
-      <c r="C216" s="1">
-        <v>84.89</v>
-      </c>
-      <c r="D216" s="1">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="E216" s="1">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="F216" s="1">
-        <v>67.31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>43444.000012326389</v>
-      </c>
-      <c r="B217" s="1">
-        <v>148.93</v>
-      </c>
-      <c r="C217" s="1">
-        <v>207.73</v>
-      </c>
-      <c r="D217" s="1">
-        <v>64</v>
-      </c>
-      <c r="E217" s="1">
-        <v>64</v>
-      </c>
-      <c r="F217" s="1">
-        <v>62.54</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>43444.041679050926</v>
-      </c>
-      <c r="B218" s="1">
-        <v>104.11</v>
-      </c>
-      <c r="C218" s="1">
-        <v>75.97</v>
-      </c>
-      <c r="D218" s="1">
-        <v>73.25</v>
-      </c>
-      <c r="E218" s="1">
-        <v>73.25</v>
-      </c>
-      <c r="F218" s="1">
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>43444.083345775463</v>
-      </c>
-      <c r="B219" s="1">
-        <v>81.36</v>
-      </c>
-      <c r="C219" s="1">
-        <v>56.49</v>
-      </c>
-      <c r="D219" s="1">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E219" s="1">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="F219" s="1">
-        <v>50.56</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>43444.125012500001</v>
-      </c>
-      <c r="B220" s="1">
-        <v>47.13</v>
-      </c>
-      <c r="C220" s="1">
-        <v>51.52</v>
-      </c>
-      <c r="D220" s="1">
-        <v>52.73</v>
-      </c>
-      <c r="E220" s="1">
-        <v>52.73</v>
-      </c>
-      <c r="F220" s="1">
-        <v>49.34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>43444.166679224538</v>
-      </c>
-      <c r="B221" s="1">
-        <v>45.25</v>
-      </c>
-      <c r="C221" s="1">
-        <v>52.68</v>
-      </c>
-      <c r="D221" s="1">
-        <v>52.21</v>
-      </c>
-      <c r="E221" s="1">
-        <v>52.21</v>
-      </c>
-      <c r="F221" s="1">
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>43444.208345949075</v>
-      </c>
-      <c r="B222" s="1">
-        <v>57.41</v>
-      </c>
-      <c r="C222" s="1">
-        <v>59.65</v>
-      </c>
-      <c r="D222" s="1">
-        <v>67.27</v>
-      </c>
-      <c r="E222" s="1">
-        <v>67.27</v>
-      </c>
-      <c r="F222" s="1">
-        <v>54.53</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>43444.250012673612</v>
-      </c>
-      <c r="B223" s="1">
-        <v>62.8</v>
-      </c>
-      <c r="C223" s="1">
-        <v>86.33</v>
-      </c>
-      <c r="D223" s="1">
-        <v>65.66</v>
-      </c>
-      <c r="E223" s="1">
-        <v>65.66</v>
-      </c>
-      <c r="F223" s="1">
-        <v>63.93</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>43444.291679398149</v>
-      </c>
-      <c r="B224" s="1">
-        <v>82.91</v>
-      </c>
-      <c r="C224" s="1">
-        <v>116.57</v>
-      </c>
-      <c r="D224" s="1">
-        <v>83.1</v>
-      </c>
-      <c r="E224" s="1">
-        <v>83.1</v>
-      </c>
-      <c r="F224" s="1">
-        <v>88.65</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>43444.333346122687</v>
-      </c>
-      <c r="B225" s="1">
-        <v>96.97</v>
-      </c>
-      <c r="C225" s="1">
-        <v>94.64</v>
-      </c>
-      <c r="D225" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="E225" s="1">
-        <v>99.48</v>
-      </c>
-      <c r="F225" s="1">
-        <v>80.540000000000006</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>43444.375012847224</v>
-      </c>
-      <c r="B226" s="1">
-        <v>82.99</v>
-      </c>
-      <c r="C226" s="1">
-        <v>93.04</v>
-      </c>
-      <c r="D226" s="1">
-        <v>89.06</v>
-      </c>
-      <c r="E226" s="1">
-        <v>89.06</v>
-      </c>
-      <c r="F226" s="1">
-        <v>80.13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>43444.416679571761</v>
-      </c>
-      <c r="B227" s="1">
-        <v>83.22</v>
-      </c>
-      <c r="C227" s="1">
-        <v>102.57</v>
-      </c>
-      <c r="D227" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="E227" s="1">
-        <v>89.88</v>
-      </c>
-      <c r="F227" s="1">
-        <v>84.42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>43444.458346296298</v>
-      </c>
-      <c r="B228" s="1">
-        <v>83.12</v>
-      </c>
-      <c r="C228" s="1">
-        <v>86.49</v>
-      </c>
-      <c r="D228" s="1">
-        <v>94.11</v>
-      </c>
-      <c r="E228" s="1">
-        <v>94.11</v>
-      </c>
-      <c r="F228" s="1">
-        <v>71.55</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>43444.500013020835</v>
-      </c>
-      <c r="B229" s="1">
-        <v>80.92</v>
-      </c>
-      <c r="C229" s="1">
-        <v>94.6</v>
-      </c>
-      <c r="D229" s="1">
-        <v>86.52</v>
-      </c>
-      <c r="E229" s="1">
-        <v>86.52</v>
-      </c>
-      <c r="F229" s="1">
-        <v>81.69</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>43444.541679745373</v>
-      </c>
-      <c r="B230" s="1">
-        <v>86.26</v>
-      </c>
-      <c r="C230" s="1">
-        <v>96.31</v>
-      </c>
-      <c r="D230" s="1">
-        <v>92.69</v>
-      </c>
-      <c r="E230" s="1">
-        <v>92.69</v>
-      </c>
-      <c r="F230" s="1">
-        <v>84.33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>43444.58334646991</v>
-      </c>
-      <c r="B231" s="1">
-        <v>130.55000000000001</v>
-      </c>
-      <c r="C231" s="1">
-        <v>90.91</v>
-      </c>
-      <c r="D231" s="1">
-        <v>140.16999999999999</v>
-      </c>
-      <c r="E231" s="1">
-        <v>140.16999999999999</v>
-      </c>
-      <c r="F231" s="1">
-        <v>80.650000000000006</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>43444.625013194447</v>
-      </c>
-      <c r="B232" s="1">
-        <v>88.69</v>
-      </c>
-      <c r="C232" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="D232" s="1">
-        <v>99.02</v>
-      </c>
-      <c r="E232" s="1">
-        <v>99.02</v>
-      </c>
-      <c r="F232" s="1">
-        <v>91.55</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>43444.666679918984</v>
-      </c>
-      <c r="B233" s="1">
-        <v>86.6</v>
-      </c>
-      <c r="C233" s="1">
-        <v>141.06</v>
-      </c>
-      <c r="D233" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="E233" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="F233" s="1">
-        <v>149.1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>43444.708346643522</v>
-      </c>
-      <c r="B234" s="1">
-        <v>83.45</v>
-      </c>
-      <c r="C234" s="1">
-        <v>104.08</v>
-      </c>
-      <c r="D234" s="1">
-        <v>91.88</v>
-      </c>
-      <c r="E234" s="1">
-        <v>91.88</v>
-      </c>
-      <c r="F234" s="1">
-        <v>105.15</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>43444.750013368059</v>
-      </c>
-      <c r="B235" s="1">
-        <v>85.99</v>
-      </c>
-      <c r="C235" s="1">
-        <v>97.42</v>
-      </c>
-      <c r="D235" s="1">
-        <v>97.04</v>
-      </c>
-      <c r="E235" s="1">
-        <v>97.04</v>
-      </c>
-      <c r="F235" s="1">
-        <v>94.67</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>43444.791680092596</v>
-      </c>
-      <c r="B236" s="1">
-        <v>84.52</v>
-      </c>
-      <c r="C236" s="1">
-        <v>98.31</v>
-      </c>
-      <c r="D236" s="1">
-        <v>89.12</v>
-      </c>
-      <c r="E236" s="1">
-        <v>89.12</v>
-      </c>
-      <c r="F236" s="1">
-        <v>99.64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>43444.833346817133</v>
-      </c>
-      <c r="B237" s="1">
-        <v>85.23</v>
-      </c>
-      <c r="C237" s="1">
-        <v>99.06</v>
-      </c>
-      <c r="D237" s="1">
-        <v>99.66</v>
-      </c>
-      <c r="E237" s="1">
-        <v>99.66</v>
-      </c>
-      <c r="F237" s="1">
-        <v>100.75</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>43444.875013541663</v>
-      </c>
-      <c r="B238" s="1">
-        <v>95.46</v>
-      </c>
-      <c r="C238" s="1">
-        <v>96.84</v>
-      </c>
-      <c r="D238" s="1">
-        <v>99.28</v>
-      </c>
-      <c r="E238" s="1">
-        <v>99.28</v>
-      </c>
-      <c r="F238" s="1">
-        <v>80.37</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>43444.9166802662</v>
-      </c>
-      <c r="B239" s="1">
-        <v>79.010000000000005</v>
-      </c>
-      <c r="C239" s="1">
-        <v>104.64</v>
-      </c>
-      <c r="D239" s="1">
-        <v>74.59</v>
-      </c>
-      <c r="E239" s="1">
-        <v>74.59</v>
-      </c>
-      <c r="F239" s="1">
-        <v>63.16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>43444.958346990737</v>
-      </c>
-      <c r="B240" s="1">
-        <v>79.239999999999995</v>
-      </c>
-      <c r="C240" s="1">
-        <v>81.069999999999993</v>
-      </c>
-      <c r="D240" s="1">
-        <v>83.06</v>
-      </c>
-      <c r="E240" s="1">
-        <v>83.06</v>
-      </c>
-      <c r="F240" s="1">
-        <v>75.27</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>43445.000013715275</v>
-      </c>
-      <c r="B241" s="1">
-        <v>83.12</v>
-      </c>
-      <c r="C241" s="1">
-        <v>103.88</v>
-      </c>
-      <c r="D241" s="1">
-        <v>72.58</v>
-      </c>
-      <c r="E241" s="1">
-        <v>72.58</v>
-      </c>
-      <c r="F241" s="1">
-        <v>66.760000000000005</v>
+        <v>63.785200000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5194,733 +3755,733 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
     </row>
   </sheetData>
